--- a/Bases_de_Dados_(2022-2023)/Chile Segunda División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Segunda División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK42"/>
+  <dimension ref="A1:BK46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>3</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT4" t="n">
         <v>0.33</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT8" t="n">
         <v>1.33</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT11" t="n">
         <v>0.5</v>
@@ -2933,7 +2933,7 @@
         <v>2</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT16" t="n">
         <v>1</v>
@@ -3948,7 +3948,7 @@
         <v>2.33</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU17" t="n">
         <v>1.34</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT24" t="n">
         <v>1</v>
@@ -5772,10 +5772,10 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU26" t="n">
         <v>1.53</v>
@@ -6381,7 +6381,7 @@
         <v>0.5</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT29" t="n">
         <v>0.33</v>
@@ -7193,7 +7193,7 @@
         <v>2</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT33" t="n">
         <v>1.33</v>
@@ -7399,7 +7399,7 @@
         <v>2.33</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU34" t="n">
         <v>1.82</v>
@@ -8005,7 +8005,7 @@
         <v>1.5</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT37" t="n">
         <v>1</v>
@@ -8820,7 +8820,7 @@
         <v>2.33</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU41" t="n">
         <v>1.09</v>
@@ -9075,6 +9075,818 @@
       </c>
       <c r="BK42" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>5409816</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Chile Segunda División</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45038.66666666666</v>
+      </c>
+      <c r="F43" t="n">
+        <v>7</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Melipilla</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Iberia</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" t="n">
+        <v>2</v>
+      </c>
+      <c r="L43" t="n">
+        <v>2</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="n">
+        <v>3</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>['30', '85']</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>['43']</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>8</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>11</v>
+      </c>
+      <c r="T43" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U43" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V43" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X43" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF43" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG43" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH43" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI43" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ43" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>5409814</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Chile Segunda División</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45038.66666666666</v>
+      </c>
+      <c r="F44" t="n">
+        <v>7</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>General Velásquez</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Deportes Linares</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>2</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" t="n">
+        <v>3</v>
+      </c>
+      <c r="L44" t="n">
+        <v>3</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="n">
+        <v>4</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>['10', '12', '53']</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>6</v>
+      </c>
+      <c r="S44" t="n">
+        <v>10</v>
+      </c>
+      <c r="T44" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U44" t="n">
+        <v>2</v>
+      </c>
+      <c r="V44" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X44" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF44" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG44" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH44" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI44" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ44" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK44" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>5409813</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Chile Segunda División</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45038.70833333334</v>
+      </c>
+      <c r="F45" t="n">
+        <v>7</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>San Antonio Unido</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Deportes Rengo</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="n">
+        <v>2</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>['46']</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>10</v>
+      </c>
+      <c r="S45" t="n">
+        <v>14</v>
+      </c>
+      <c r="T45" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U45" t="n">
+        <v>2</v>
+      </c>
+      <c r="V45" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X45" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AX45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF45" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG45" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH45" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI45" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ45" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>5409811</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Chile Segunda División</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45038.75</v>
+      </c>
+      <c r="F46" t="n">
+        <v>7</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lautaro de Buin </t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Deportes Limache</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>10</v>
+      </c>
+      <c r="T46" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U46" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V46" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X46" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF46" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG46" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH46" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI46" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ46" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK46" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Chile Segunda División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Segunda División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK46"/>
+  <dimension ref="A1:BK49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT6" t="n">
         <v>0.33</v>
@@ -2121,7 +2121,7 @@
         <v>1.25</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="AT9" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>2.5</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT13" t="n">
         <v>2.33</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT20" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>1.33</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU22" t="n">
         <v>1.43</v>
@@ -5978,7 +5978,7 @@
         <v>2.33</v>
       </c>
       <c r="AT27" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU27" t="n">
         <v>0</v>
@@ -6587,7 +6587,7 @@
         <v>2.33</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU30" t="n">
         <v>1.7</v>
@@ -6990,7 +6990,7 @@
         <v>0.5</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT32" t="n">
         <v>0.33</v>
@@ -7196,7 +7196,7 @@
         <v>2.5</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU33" t="n">
         <v>1.3</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT34" t="n">
         <v>0.5</v>
@@ -8008,7 +8008,7 @@
         <v>2.5</v>
       </c>
       <c r="AT37" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU37" t="n">
         <v>1.66</v>
@@ -9887,6 +9887,615 @@
       </c>
       <c r="BK46" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>5409812</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Chile Segunda División</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45039.66666666666</v>
+      </c>
+      <c r="F47" t="n">
+        <v>7</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Provincial Osorno</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Real San Joaquín</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="n">
+        <v>2</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="n">
+        <v>3</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>['11', '86']</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>6</v>
+      </c>
+      <c r="R47" t="n">
+        <v>6</v>
+      </c>
+      <c r="S47" t="n">
+        <v>12</v>
+      </c>
+      <c r="T47" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U47" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V47" t="n">
+        <v>4</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X47" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AX47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF47" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG47" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH47" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI47" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ47" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>5409817</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Chile Segunda División</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45039.6875</v>
+      </c>
+      <c r="F48" t="n">
+        <v>7</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Concepción</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Deportes Valdivia</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2</v>
+      </c>
+      <c r="N48" t="n">
+        <v>3</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>['68', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>10</v>
+      </c>
+      <c r="S48" t="n">
+        <v>10</v>
+      </c>
+      <c r="T48" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U48" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V48" t="n">
+        <v>3</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X48" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AX48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF48" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG48" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ48" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>5409815</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Chile Segunda División</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45039.77083333334</v>
+      </c>
+      <c r="F49" t="n">
+        <v>7</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Trasandino</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Fernández Vial</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>1</v>
+      </c>
+      <c r="R49" t="n">
+        <v>6</v>
+      </c>
+      <c r="S49" t="n">
+        <v>7</v>
+      </c>
+      <c r="T49" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U49" t="n">
+        <v>2</v>
+      </c>
+      <c r="V49" t="n">
+        <v>5</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X49" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AX49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF49" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH49" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI49" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ49" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK49" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Chile Segunda División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Segunda División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK49"/>
+  <dimension ref="A1:BK50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>3</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT5" t="n">
         <v>1.5</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT15" t="n">
         <v>0.33</v>
@@ -3948,7 +3948,7 @@
         <v>2.33</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AU17" t="n">
         <v>1.34</v>
@@ -7399,7 +7399,7 @@
         <v>2</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AU34" t="n">
         <v>1.82</v>
@@ -8208,7 +8208,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT38" t="n">
         <v>1</v>
@@ -9632,7 +9632,7 @@
         <v>1.25</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AU45" t="n">
         <v>1.88</v>
@@ -10496,6 +10496,209 @@
       </c>
       <c r="BK49" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>5409822</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Chile Segunda División</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45044.83333333334</v>
+      </c>
+      <c r="F50" t="n">
+        <v>8</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Deportes Valdivia</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Deportes Rengo</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="n">
+        <v>2</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="n">
+        <v>5</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>['8', '82']</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>['51', '54', '70']</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>9</v>
+      </c>
+      <c r="R50" t="n">
+        <v>6</v>
+      </c>
+      <c r="S50" t="n">
+        <v>15</v>
+      </c>
+      <c r="T50" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U50" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V50" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W50" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X50" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AX50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF50" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG50" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH50" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI50" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ50" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK50" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Chile Segunda División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Segunda División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK50"/>
+  <dimension ref="A1:BK54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT3" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>2</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>3</v>
       </c>
       <c r="AT7" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT10" t="n">
         <v>1</v>
@@ -3136,7 +3136,7 @@
         <v>2</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU15" t="n">
         <v>0.8</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT16" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU16" t="n">
         <v>1.29</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT17" t="n">
         <v>1</v>
@@ -4354,7 +4354,7 @@
         <v>3</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU19" t="n">
         <v>2.07</v>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT22" t="n">
         <v>1.75</v>
@@ -5572,7 +5572,7 @@
         <v>0</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AU25" t="n">
         <v>2.07</v>
@@ -6384,7 +6384,7 @@
         <v>1.25</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU29" t="n">
         <v>2.24</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT30" t="n">
         <v>0.67</v>
@@ -6993,7 +6993,7 @@
         <v>2</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU32" t="n">
         <v>2.42</v>
@@ -7193,7 +7193,7 @@
         <v>2</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT33" t="n">
         <v>1.75</v>
@@ -7805,7 +7805,7 @@
         <v>0</v>
       </c>
       <c r="AT36" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU36" t="n">
         <v>1.89</v>
@@ -8614,10 +8614,10 @@
         <v>3</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT40" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AU40" t="n">
         <v>1.66</v>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT44" t="n">
         <v>0</v>
@@ -10699,6 +10699,818 @@
       </c>
       <c r="BK50" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>5409818</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Chile Segunda División</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45045.66666666666</v>
+      </c>
+      <c r="F51" t="n">
+        <v>8</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>General Velásquez</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Trasandino</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>7</v>
+      </c>
+      <c r="S51" t="n">
+        <v>10</v>
+      </c>
+      <c r="T51" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U51" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V51" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W51" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X51" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF51" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG51" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH51" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI51" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ51" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK51" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>5409819</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Chile Segunda División</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45045.66666666666</v>
+      </c>
+      <c r="F52" t="n">
+        <v>8</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Real San Joaquín</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>San Antonio Unido</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="n">
+        <v>2</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="n">
+        <v>5</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>['58', '90+3']</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>['37', '61', '85']</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>6</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>9</v>
+      </c>
+      <c r="T52" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U52" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V52" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W52" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X52" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF52" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG52" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH52" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI52" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ52" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK52" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>5409820</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Chile Segunda División</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45045.70833333334</v>
+      </c>
+      <c r="F53" t="n">
+        <v>8</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Deportes Linares</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Melipilla</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="n">
+        <v>3</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>['16', '68', '83']</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>6</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>9</v>
+      </c>
+      <c r="T53" t="n">
+        <v>4</v>
+      </c>
+      <c r="U53" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V53" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W53" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X53" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW53" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AX53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF53" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG53" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH53" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI53" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ53" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK53" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>5409823</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Chile Segunda División</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45045.875</v>
+      </c>
+      <c r="F54" t="n">
+        <v>8</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Deportes Limache</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Concepción</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>2</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>2</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>['-1', '-1']</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AX54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK54" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Chile Segunda División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Segunda División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK54"/>
+  <dimension ref="A1:BK55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1512,7 +1512,7 @@
         <v>1</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>3</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU14" t="n">
         <v>1.47</v>
@@ -4760,7 +4760,7 @@
         <v>2</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU21" t="n">
         <v>1.6</v>
@@ -5975,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT27" t="n">
         <v>0.75</v>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT35" t="n">
         <v>0</v>
@@ -8414,7 +8414,7 @@
         <v>2</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU39" t="n">
         <v>1.27</v>
@@ -8817,7 +8817,7 @@
         <v>2</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT41" t="n">
         <v>1.25</v>
@@ -11511,6 +11511,209 @@
       </c>
       <c r="BK54" t="n">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>5409824</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Chile Segunda División</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45046.79166666666</v>
+      </c>
+      <c r="F55" t="n">
+        <v>8</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Iberia</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Provincial Osorno</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>1</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>['65']</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>9</v>
+      </c>
+      <c r="T55" t="n">
+        <v>3</v>
+      </c>
+      <c r="U55" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V55" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W55" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X55" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF55" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG55" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH55" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI55" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ55" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK55" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Chile Segunda División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Segunda División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK55"/>
+  <dimension ref="A1:BK56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT18" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>1.5</v>
       </c>
       <c r="AS21" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT21" t="n">
         <v>1.2</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT42" t="n">
         <v>0</v>
@@ -11714,6 +11714,209 @@
       </c>
       <c r="BK55" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>5409821</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Chile Segunda División</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45049.79166666666</v>
+      </c>
+      <c r="F56" t="n">
+        <v>8</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Fernández Vial</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lautaro de Buin </t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>2</v>
+      </c>
+      <c r="K56" t="n">
+        <v>3</v>
+      </c>
+      <c r="L56" t="n">
+        <v>2</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="n">
+        <v>4</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>['42', '54']</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>['12', '45+3']</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>9</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1</v>
+      </c>
+      <c r="S56" t="n">
+        <v>10</v>
+      </c>
+      <c r="T56" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U56" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V56" t="n">
+        <v>5</v>
+      </c>
+      <c r="W56" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X56" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF56" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG56" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH56" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI56" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ56" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK56" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Chile Segunda División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Segunda División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK56"/>
+  <dimension ref="A1:BK57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT6" t="n">
         <v>1</v>
@@ -2121,7 +2121,7 @@
         <v>1.25</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT20" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>1</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU22" t="n">
         <v>1.43</v>
@@ -7196,7 +7196,7 @@
         <v>2.2</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU33" t="n">
         <v>1.3</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT34" t="n">
         <v>1</v>
@@ -10241,7 +10241,7 @@
         <v>0</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU48" t="n">
         <v>1.83</v>
@@ -10441,7 +10441,7 @@
         <v>0.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT49" t="n">
         <v>0.67</v>
@@ -11917,6 +11917,209 @@
       </c>
       <c r="BK56" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>5409831</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Chile Segunda División</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45050.83333333334</v>
+      </c>
+      <c r="F57" t="n">
+        <v>9</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Trasandino</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Deportes Valdivia</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>8</v>
+      </c>
+      <c r="R57" t="n">
+        <v>6</v>
+      </c>
+      <c r="S57" t="n">
+        <v>14</v>
+      </c>
+      <c r="T57" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U57" t="n">
+        <v>2</v>
+      </c>
+      <c r="V57" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W57" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X57" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW57" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AX57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF57" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG57" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH57" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI57" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ57" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK57" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Chile Segunda División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Segunda División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK57"/>
+  <dimension ref="A1:BK61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.75</v>
       </c>
       <c r="AT3" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT8" t="n">
         <v>1.6</v>
@@ -2324,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT12" t="n">
         <v>1.25</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT13" t="n">
         <v>2</v>
@@ -4151,7 +4151,7 @@
         <v>1.75</v>
       </c>
       <c r="AT18" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>1.8</v>
       </c>
       <c r="AT20" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AU20" t="n">
         <v>1.68</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT23" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AU23" t="n">
         <v>1.28</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT24" t="n">
         <v>1</v>
@@ -5978,7 +5978,7 @@
         <v>2.5</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU27" t="n">
         <v>0</v>
@@ -6181,7 +6181,7 @@
         <v>3</v>
       </c>
       <c r="AT28" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AU28" t="n">
         <v>1.41</v>
@@ -6381,7 +6381,7 @@
         <v>0.5</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT29" t="n">
         <v>1</v>
@@ -6790,7 +6790,7 @@
         <v>3</v>
       </c>
       <c r="AT31" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AU31" t="n">
         <v>1.03</v>
@@ -6990,7 +6990,7 @@
         <v>0.5</v>
       </c>
       <c r="AS32" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT32" t="n">
         <v>0.25</v>
@@ -7602,7 +7602,7 @@
         <v>2.5</v>
       </c>
       <c r="AT35" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AU35" t="n">
         <v>1.39</v>
@@ -8008,7 +8008,7 @@
         <v>2.5</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU37" t="n">
         <v>1.66</v>
@@ -8411,7 +8411,7 @@
         <v>2</v>
       </c>
       <c r="AS39" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT39" t="n">
         <v>1.2</v>
@@ -9023,7 +9023,7 @@
         <v>1.75</v>
       </c>
       <c r="AT42" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AU42" t="n">
         <v>1.47</v>
@@ -9226,7 +9226,7 @@
         <v>2.5</v>
       </c>
       <c r="AT43" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AU43" t="n">
         <v>1.65</v>
@@ -9429,7 +9429,7 @@
         <v>2.2</v>
       </c>
       <c r="AT44" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AU44" t="n">
         <v>1.3</v>
@@ -9629,7 +9629,7 @@
         <v>0.33</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT45" t="n">
         <v>1</v>
@@ -10035,10 +10035,10 @@
         <v>1</v>
       </c>
       <c r="AS47" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU47" t="n">
         <v>2.24</v>
@@ -12120,6 +12120,818 @@
       </c>
       <c r="BK57" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>5409826</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Chile Segunda División</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45055.54166666666</v>
+      </c>
+      <c r="F58" t="n">
+        <v>9</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Deportes Limache</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Real San Joaquín</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="n">
+        <v>2</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="n">
+        <v>3</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>['27', '72']</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>7</v>
+      </c>
+      <c r="T58" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U58" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V58" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W58" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X58" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AX58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF58" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG58" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH58" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI58" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ58" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>5409827</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Chile Segunda División</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45055.66666666666</v>
+      </c>
+      <c r="F59" t="n">
+        <v>9</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Provincial Osorno</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>General Velásquez</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>7</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>12</v>
+      </c>
+      <c r="T59" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U59" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V59" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W59" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X59" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AX59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF59" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG59" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH59" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI59" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ59" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>5409830</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Chile Segunda División</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45055.66666666666</v>
+      </c>
+      <c r="F60" t="n">
+        <v>9</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Deportes Rengo</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Iberia</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="n">
+        <v>2</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>2</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U60" t="n">
+        <v>2</v>
+      </c>
+      <c r="V60" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W60" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X60" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW60" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AX60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF60" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG60" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH60" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI60" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ60" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>5409828</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Chile Segunda División</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45055.70833333334</v>
+      </c>
+      <c r="F61" t="n">
+        <v>9</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>San Antonio Unido</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Deportes Linares</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>9</v>
+      </c>
+      <c r="R61" t="n">
+        <v>2</v>
+      </c>
+      <c r="S61" t="n">
+        <v>11</v>
+      </c>
+      <c r="T61" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U61" t="n">
+        <v>2</v>
+      </c>
+      <c r="V61" t="n">
+        <v>4</v>
+      </c>
+      <c r="W61" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X61" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW61" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AX61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH61" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI61" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ61" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK61" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Chile Segunda División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Segunda División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK61"/>
+  <dimension ref="A1:BK62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1715,7 +1715,7 @@
         <v>1.8</v>
       </c>
       <c r="AT6" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="AT15" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU15" t="n">
         <v>0.8</v>
@@ -6384,7 +6384,7 @@
         <v>1.2</v>
       </c>
       <c r="AT29" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU29" t="n">
         <v>2.24</v>
@@ -11256,7 +11256,7 @@
         <v>1</v>
       </c>
       <c r="AT53" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU53" t="n">
         <v>1.83</v>
@@ -12932,6 +12932,209 @@
       </c>
       <c r="BK61" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>5409825</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Chile Segunda División</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45057.79166666666</v>
+      </c>
+      <c r="F62" t="n">
+        <v>9</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lautaro de Buin </t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Melipilla</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="n">
+        <v>3</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="n">
+        <v>4</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>['48', '64', '70']</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1</v>
+      </c>
+      <c r="S62" t="n">
+        <v>6</v>
+      </c>
+      <c r="T62" t="n">
+        <v>3</v>
+      </c>
+      <c r="U62" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V62" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W62" t="n">
+        <v>0</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AW62" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AX62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF62" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG62" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH62" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI62" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ62" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK62" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Chile Segunda División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Segunda División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK62"/>
+  <dimension ref="A1:BK69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>3</v>
       </c>
       <c r="AT2" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT3" t="n">
         <v>0.2</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>3</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT10" t="n">
         <v>1</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT11" t="n">
         <v>0.67</v>
@@ -2933,7 +2933,7 @@
         <v>1.75</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.75</v>
       </c>
       <c r="AT13" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>3</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU14" t="n">
         <v>1.47</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT15" t="n">
         <v>0.8</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU16" t="n">
         <v>1.29</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT17" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU17" t="n">
         <v>1.34</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT18" t="n">
         <v>0.2</v>
@@ -4354,7 +4354,7 @@
         <v>3</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU19" t="n">
         <v>2.07</v>
@@ -4757,10 +4757,10 @@
         <v>1.5</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU21" t="n">
         <v>1.6</v>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT22" t="n">
         <v>1.6</v>
@@ -5572,7 +5572,7 @@
         <v>0</v>
       </c>
       <c r="AT25" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AU25" t="n">
         <v>2.07</v>
@@ -5772,10 +5772,10 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU26" t="n">
         <v>1.53</v>
@@ -5975,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT27" t="n">
         <v>0.6</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT30" t="n">
         <v>0.67</v>
@@ -6993,7 +6993,7 @@
         <v>1.75</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU32" t="n">
         <v>2.42</v>
@@ -7193,7 +7193,7 @@
         <v>2</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT33" t="n">
         <v>1.6</v>
@@ -7399,7 +7399,7 @@
         <v>1.8</v>
       </c>
       <c r="AT34" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU34" t="n">
         <v>1.82</v>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT35" t="n">
         <v>0.25</v>
@@ -7805,7 +7805,7 @@
         <v>0</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU36" t="n">
         <v>1.89</v>
@@ -8005,7 +8005,7 @@
         <v>1.5</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT37" t="n">
         <v>0.6</v>
@@ -8208,7 +8208,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT38" t="n">
         <v>1</v>
@@ -8414,7 +8414,7 @@
         <v>1.75</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU39" t="n">
         <v>1.27</v>
@@ -8614,10 +8614,10 @@
         <v>3</v>
       </c>
       <c r="AS40" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT40" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AU40" t="n">
         <v>1.66</v>
@@ -8817,10 +8817,10 @@
         <v>2</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU41" t="n">
         <v>1.09</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT42" t="n">
         <v>0.25</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT43" t="n">
         <v>0.25</v>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT44" t="n">
         <v>0.2</v>
@@ -9632,7 +9632,7 @@
         <v>1.2</v>
       </c>
       <c r="AT45" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU45" t="n">
         <v>1.88</v>
@@ -9835,7 +9835,7 @@
         <v>3</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU46" t="n">
         <v>1.54</v>
@@ -10644,10 +10644,10 @@
         <v>0.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT50" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU50" t="n">
         <v>1.15</v>
@@ -10847,10 +10847,10 @@
         <v>2.33</v>
       </c>
       <c r="AS51" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT51" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AU51" t="n">
         <v>1.45</v>
@@ -11050,10 +11050,10 @@
         <v>1</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU52" t="n">
         <v>1.54</v>
@@ -11253,7 +11253,7 @@
         <v>0.33</v>
       </c>
       <c r="AS53" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT53" t="n">
         <v>0.8</v>
@@ -11459,7 +11459,7 @@
         <v>3</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU54" t="n">
         <v>1.02</v>
@@ -11659,10 +11659,10 @@
         <v>1.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU55" t="n">
         <v>1.04</v>
@@ -11862,7 +11862,7 @@
         <v>1</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT56" t="n">
         <v>1</v>
@@ -13135,6 +13135,1427 @@
       </c>
       <c r="BK62" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>5409833</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Chile Segunda División</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45059.66666666666</v>
+      </c>
+      <c r="F63" t="n">
+        <v>10</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Real San Joaquín</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Trasandino</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="n">
+        <v>3</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="n">
+        <v>4</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>['31', '57', '90+3']</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1</v>
+      </c>
+      <c r="S63" t="n">
+        <v>6</v>
+      </c>
+      <c r="T63" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U63" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V63" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W63" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X63" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW63" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF63" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG63" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH63" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI63" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ63" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK63" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>5409837</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Chile Segunda División</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45059.66666666666</v>
+      </c>
+      <c r="F64" t="n">
+        <v>10</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Deportes Linares</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Concepción</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>1</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>['4']</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" t="n">
+        <v>7</v>
+      </c>
+      <c r="S64" t="n">
+        <v>7</v>
+      </c>
+      <c r="T64" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U64" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V64" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W64" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X64" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW64" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF64" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG64" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH64" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI64" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ64" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>5409832</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Chile Segunda División</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45059.6875</v>
+      </c>
+      <c r="F65" t="n">
+        <v>10</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Deportes Valdivia</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Deportes Limache</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2</v>
+      </c>
+      <c r="K65" t="n">
+        <v>2</v>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2</v>
+      </c>
+      <c r="N65" t="n">
+        <v>3</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>['3', '44']</t>
+        </is>
+      </c>
+      <c r="Q65" t="n">
+        <v>9</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>13</v>
+      </c>
+      <c r="T65" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U65" t="n">
+        <v>2</v>
+      </c>
+      <c r="V65" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W65" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X65" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW65" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AX65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF65" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG65" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH65" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI65" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ65" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>5409836</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Chile Segunda División</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45059.79166666666</v>
+      </c>
+      <c r="F66" t="n">
+        <v>10</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Fernández Vial</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Deportes Rengo</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>1</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q66" t="n">
+        <v>2</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
+      <c r="S66" t="n">
+        <v>2</v>
+      </c>
+      <c r="T66" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U66" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V66" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W66" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X66" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW66" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AX66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF66" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG66" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH66" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ66" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>5409838</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Chile Segunda División</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45060.66666666666</v>
+      </c>
+      <c r="F67" t="n">
+        <v>10</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Melipilla</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Provincial Osorno</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="n">
+        <v>2</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2</v>
+      </c>
+      <c r="N67" t="n">
+        <v>4</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>['90+1', '90+4']</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>['3', '49']</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
+        <v>16</v>
+      </c>
+      <c r="R67" t="n">
+        <v>2</v>
+      </c>
+      <c r="S67" t="n">
+        <v>18</v>
+      </c>
+      <c r="T67" t="n">
+        <v>3</v>
+      </c>
+      <c r="U67" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V67" t="n">
+        <v>4</v>
+      </c>
+      <c r="W67" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X67" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AW67" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AX67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF67" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG67" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH67" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI67" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ67" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>5409835</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Chile Segunda División</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45060.66666666666</v>
+      </c>
+      <c r="F68" t="n">
+        <v>10</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>General Velásquez</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lautaro de Buin </t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="n">
+        <v>2</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>6</v>
+      </c>
+      <c r="R68" t="n">
+        <v>6</v>
+      </c>
+      <c r="S68" t="n">
+        <v>12</v>
+      </c>
+      <c r="T68" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U68" t="n">
+        <v>2</v>
+      </c>
+      <c r="V68" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W68" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X68" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU68" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW68" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF68" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG68" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH68" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI68" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ68" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>5409834</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Chile Segunda División</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45060.75</v>
+      </c>
+      <c r="F69" t="n">
+        <v>10</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Iberia</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>San Antonio Unido</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>3</v>
+      </c>
+      <c r="K69" t="n">
+        <v>3</v>
+      </c>
+      <c r="L69" t="n">
+        <v>3</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="n">
+        <v>6</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>['51', '74', '90+8']</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>['7', '31', '40']</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
+        <v>9</v>
+      </c>
+      <c r="R69" t="n">
+        <v>1</v>
+      </c>
+      <c r="S69" t="n">
+        <v>10</v>
+      </c>
+      <c r="T69" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U69" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V69" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W69" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X69" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS69" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT69" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU69" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AV69" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW69" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AX69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF69" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG69" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH69" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI69" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ69" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK69" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Chile Segunda División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Segunda División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK69"/>
+  <dimension ref="A1:BK73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT5" t="n">
         <v>1.17</v>
@@ -1715,7 +1715,7 @@
         <v>1.8</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT8" t="n">
         <v>1.6</v>
@@ -2383,7 +2383,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>5409778</v>
+        <v>5409781</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -2403,12 +2403,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Deportes Linares</t>
+          <t>Melipilla</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lautaro de Buin </t>
+          <t>Fernández Vial</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -2421,114 +2421,114 @@
         <v>3</v>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
+        <v>3</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>['36', '42']</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>['32']</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
         <v>5</v>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>['17', '27', '90+9']</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>['33', '87']</t>
-        </is>
-      </c>
-      <c r="Q10" t="n">
-        <v>2</v>
-      </c>
       <c r="R10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S10" t="n">
         <v>7</v>
       </c>
       <c r="T10" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="U10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X10" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
         <v>2.2</v>
       </c>
-      <c r="V10" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="X10" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH10" t="n">
+      <c r="AT10" t="n">
         <v>1.25</v>
       </c>
-      <c r="AI10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>1</v>
-      </c>
       <c r="AU10" t="n">
         <v>0</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="BC10" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="BD10" t="n">
         <v>0</v>
@@ -2563,22 +2563,22 @@
         <v>0</v>
       </c>
       <c r="BF10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BG10" t="n">
         <v>5</v>
       </c>
       <c r="BH10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BI10" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="BJ10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BK10" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -2586,7 +2586,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>5409781</v>
+        <v>5409778</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -2606,12 +2606,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Melipilla</t>
+          <t>Deportes Linares</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Fernández Vial</t>
+          <t xml:space="preserve">Lautaro de Buin </t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -2624,101 +2624,101 @@
         <v>3</v>
       </c>
       <c r="L11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>['36', '42']</t>
+          <t>['17', '27', '90+9']</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>['32']</t>
+          <t>['33', '87']</t>
         </is>
       </c>
       <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" t="n">
         <v>5</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2</v>
       </c>
       <c r="S11" t="n">
         <v>7</v>
       </c>
       <c r="T11" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="U11" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V11" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="W11" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="X11" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.32</v>
+        <v>2.55</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.54</v>
+        <v>1.44</v>
       </c>
       <c r="AA11" t="n">
-        <v>5.3</v>
+        <v>6.3</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="AC11" t="n">
-        <v>2.42</v>
+        <v>3.22</v>
       </c>
       <c r="AD11" t="n">
-        <v>3.54</v>
+        <v>3.44</v>
       </c>
       <c r="AE11" t="n">
-        <v>2.56</v>
+        <v>2.09</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH11" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AI11" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="AK11" t="n">
-        <v>2.18</v>
+        <v>1.94</v>
       </c>
       <c r="AL11" t="n">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="AM11" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AN11" t="n">
-        <v>1.44</v>
+        <v>1.66</v>
       </c>
       <c r="AO11" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.49</v>
+        <v>1.3</v>
       </c>
       <c r="AQ11" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2757,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="BC11" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="BD11" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="BF11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BG11" t="n">
         <v>5</v>
       </c>
       <c r="BH11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BI11" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BJ11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BK11" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -2789,7 +2789,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>5409776</v>
+        <v>5409777</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2809,119 +2809,119 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Deportes Rengo</t>
+          <t>Provincial Osorno</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Deportes Limache</t>
+          <t>Trasandino</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['14']</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>['61', '89']</t>
+          <t>['38', '53']</t>
         </is>
       </c>
       <c r="Q12" t="n">
+        <v>9</v>
+      </c>
+      <c r="R12" t="n">
         <v>5</v>
       </c>
-      <c r="R12" t="n">
-        <v>1</v>
-      </c>
       <c r="S12" t="n">
+        <v>14</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>4</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X12" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA12" t="n">
         <v>6</v>
       </c>
-      <c r="T12" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X12" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>8</v>
-      </c>
       <c r="AB12" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.4</v>
+        <v>1.97</v>
       </c>
       <c r="AD12" t="n">
-        <v>3.38</v>
+        <v>3.44</v>
       </c>
       <c r="AE12" t="n">
-        <v>2.04</v>
+        <v>3.56</v>
       </c>
       <c r="AF12" t="n">
         <v>1.04</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="AI12" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="AK12" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="AL12" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="AM12" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="AN12" t="n">
-        <v>1.68</v>
+        <v>1.25</v>
       </c>
       <c r="AO12" t="n">
         <v>1.26</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.28</v>
+        <v>1.76</v>
       </c>
       <c r="AQ12" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1.75</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -2969,22 +2969,22 @@
         <v>0</v>
       </c>
       <c r="BF12" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BG12" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BH12" t="n">
         <v>8</v>
       </c>
       <c r="BI12" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BJ12" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BK12" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -2992,7 +2992,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>5409777</v>
+        <v>5409776</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -3012,119 +3012,119 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Provincial Osorno</t>
+          <t>Deportes Rengo</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Trasandino</t>
+          <t>Deportes Limache</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>['14']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>['38', '53']</t>
+          <t>['61', '89']</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S13" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="T13" t="n">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="U13" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V13" t="n">
-        <v>4</v>
+        <v>2.63</v>
       </c>
       <c r="W13" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="X13" t="n">
-        <v>2.8</v>
+        <v>2.95</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="AA13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.97</v>
+        <v>3.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>3.44</v>
+        <v>3.38</v>
       </c>
       <c r="AE13" t="n">
-        <v>3.56</v>
+        <v>2.04</v>
       </c>
       <c r="AF13" t="n">
         <v>1.04</v>
       </c>
       <c r="AG13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH13" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AI13" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="AK13" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="AL13" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AM13" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="AN13" t="n">
-        <v>1.25</v>
+        <v>1.68</v>
       </c>
       <c r="AO13" t="n">
         <v>1.26</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.76</v>
+        <v>1.28</v>
       </c>
       <c r="AQ13" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT13" t="n">
         <v>1.6</v>
@@ -3172,22 +3172,22 @@
         <v>0</v>
       </c>
       <c r="BF13" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG13" t="n">
         <v>10</v>
-      </c>
-      <c r="BG13" t="n">
-        <v>5</v>
       </c>
       <c r="BH13" t="n">
         <v>8</v>
       </c>
       <c r="BI13" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BJ13" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="BK13" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU15" t="n">
         <v>0.8</v>
@@ -4616,7 +4616,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>5409795</v>
+        <v>5409794</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -4636,62 +4636,62 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Fernández Vial</t>
+          <t>Deportes Rengo</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Provincial Osorno</t>
+          <t>General Velásquez</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>['45+4']</t>
+          <t>['33']</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>['4', '90+2']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q21" t="n">
         <v>5</v>
       </c>
       <c r="R21" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S21" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="T21" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
         <v>2.63</v>
       </c>
-      <c r="U21" t="n">
-        <v>2</v>
-      </c>
-      <c r="V21" t="n">
-        <v>4.33</v>
-      </c>
       <c r="W21" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="X21" t="n">
         <v>2.7</v>
@@ -4709,13 +4709,13 @@
         <v>1.05</v>
       </c>
       <c r="AC21" t="n">
-        <v>1.95</v>
+        <v>3.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AE21" t="n">
-        <v>3.4</v>
+        <v>1.91</v>
       </c>
       <c r="AF21" t="n">
         <v>1.06</v>
@@ -4724,67 +4724,67 @@
         <v>9</v>
       </c>
       <c r="AH21" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AI21" t="n">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="AJ21" t="n">
-        <v>2.18</v>
+        <v>2.07</v>
       </c>
       <c r="AK21" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="AL21" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB21" t="n">
         <v>1.98</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>0</v>
       </c>
       <c r="BC21" t="n">
         <v>0</v>
@@ -4802,16 +4802,16 @@
         <v>6</v>
       </c>
       <c r="BH21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BI21" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BJ21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BK21" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -4819,7 +4819,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>5409796</v>
+        <v>5409795</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -4839,12 +4839,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Deportes Linares</t>
+          <t>Fernández Vial</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Deportes Valdivia</t>
+          <t>Provincial Osorno</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -4867,112 +4867,112 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>['30']</t>
+          <t>['45+4']</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>['29', '60']</t>
+          <t>['4', '90+2']</t>
         </is>
       </c>
       <c r="Q22" t="n">
         <v>5</v>
       </c>
       <c r="R22" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S22" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="T22" t="n">
-        <v>3.2</v>
+        <v>2.63</v>
       </c>
       <c r="U22" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V22" t="n">
-        <v>3.2</v>
+        <v>4.33</v>
       </c>
       <c r="W22" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="X22" t="n">
-        <v>2.69</v>
+        <v>2.7</v>
       </c>
       <c r="Y22" t="n">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="Z22" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="AA22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB22" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF22" t="n">
         <v>1.06</v>
       </c>
-      <c r="AC22" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>1.05</v>
-      </c>
       <c r="AG22" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH22" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AI22" t="n">
-        <v>3.14</v>
+        <v>2.75</v>
       </c>
       <c r="AJ22" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="AK22" t="n">
-        <v>1.76</v>
+        <v>1.63</v>
       </c>
       <c r="AL22" t="n">
-        <v>1.76</v>
+        <v>1.98</v>
       </c>
       <c r="AM22" t="n">
-        <v>1.91</v>
+        <v>1.72</v>
       </c>
       <c r="AN22" t="n">
-        <v>1.52</v>
+        <v>1.28</v>
       </c>
       <c r="AO22" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.37</v>
+        <v>1.73</v>
       </c>
       <c r="AQ22" t="n">
         <v>3</v>
       </c>
       <c r="AR22" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="AT22" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU22" t="n">
         <v>1.6</v>
       </c>
-      <c r="AU22" t="n">
-        <v>1.43</v>
-      </c>
       <c r="AV22" t="n">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="AW22" t="n">
-        <v>2.23</v>
+        <v>2.44</v>
       </c>
       <c r="AX22" t="n">
         <v>0</v>
@@ -4999,22 +4999,22 @@
         <v>0</v>
       </c>
       <c r="BF22" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BG22" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK22" t="n">
         <v>8</v>
-      </c>
-      <c r="BH22" t="n">
-        <v>9</v>
-      </c>
-      <c r="BI22" t="n">
-        <v>5</v>
-      </c>
-      <c r="BJ22" t="n">
-        <v>16</v>
-      </c>
-      <c r="BK22" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="23">
@@ -5022,7 +5022,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>5409794</v>
+        <v>5409796</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -5042,40 +5042,40 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Deportes Rengo</t>
+          <t>Deportes Linares</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>General Velásquez</t>
+          <t>Deportes Valdivia</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>['33']</t>
+          <t>['30']</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['29', '60']</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -5088,136 +5088,136 @@
         <v>12</v>
       </c>
       <c r="T23" t="n">
-        <v>4.33</v>
+        <v>3.2</v>
       </c>
       <c r="U23" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V23" t="n">
-        <v>2.63</v>
+        <v>3.2</v>
       </c>
       <c r="W23" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="X23" t="n">
-        <v>2.7</v>
+        <v>2.69</v>
       </c>
       <c r="Y23" t="n">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="Z23" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH23" t="n">
         <v>1.29</v>
       </c>
-      <c r="AA23" t="n">
+      <c r="AI23" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH23" t="n">
         <v>9</v>
       </c>
-      <c r="AB23" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF23" t="n">
+      <c r="BI23" t="n">
         <v>5</v>
       </c>
-      <c r="BG23" t="n">
-        <v>6</v>
-      </c>
-      <c r="BH23" t="n">
-        <v>5</v>
-      </c>
-      <c r="BI23" t="n">
-        <v>6</v>
-      </c>
       <c r="BJ23" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="BK23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT24" t="n">
         <v>1</v>
@@ -5428,7 +5428,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>5409791</v>
+        <v>5409793</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -5448,182 +5448,182 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Concepción</t>
+          <t>Iberia</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Trasandino</t>
+          <t>Real San Joaquín</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
+        <v>3</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>['7', '10', '83']</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>12</v>
+      </c>
+      <c r="S25" t="n">
+        <v>15</v>
+      </c>
+      <c r="T25" t="n">
+        <v>3</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X25" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF25" t="n">
         <v>5</v>
       </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>['68', '72']</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>['33', '39', '44']</t>
-        </is>
-      </c>
-      <c r="Q25" t="n">
+      <c r="BG25" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI25" t="n">
         <v>10</v>
-      </c>
-      <c r="R25" t="n">
-        <v>3</v>
-      </c>
-      <c r="S25" t="n">
-        <v>13</v>
-      </c>
-      <c r="T25" t="n">
-        <v>3</v>
-      </c>
-      <c r="U25" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V25" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="X25" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>8</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>3</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC25" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="BD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF25" t="n">
-        <v>8</v>
-      </c>
-      <c r="BG25" t="n">
-        <v>7</v>
-      </c>
-      <c r="BH25" t="n">
-        <v>4</v>
-      </c>
-      <c r="BI25" t="n">
-        <v>4</v>
       </c>
       <c r="BJ25" t="n">
         <v>12</v>
       </c>
       <c r="BK25" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
@@ -5834,7 +5834,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>5409793</v>
+        <v>5409791</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -5854,182 +5854,182 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>Concepción</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Real San Joaquín</t>
+          <t>Trasandino</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>['7', '10', '83']</t>
+          <t>['68', '72']</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['33', '39', '44']</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="R27" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="S27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="T27" t="n">
         <v>3</v>
       </c>
       <c r="U27" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V27" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X27" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC27" t="n">
         <v>2.1</v>
       </c>
-      <c r="V27" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="W27" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="X27" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AA27" t="n">
+      <c r="BD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG27" t="n">
         <v>7</v>
       </c>
-      <c r="AB27" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>3</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF27" t="n">
-        <v>5</v>
-      </c>
-      <c r="BG27" t="n">
-        <v>8</v>
-      </c>
       <c r="BH27" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BI27" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="BJ27" t="n">
         <v>12</v>
       </c>
       <c r="BK27" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28">
@@ -6381,10 +6381,10 @@
         <v>0.5</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU29" t="n">
         <v>2.24</v>
@@ -6587,7 +6587,7 @@
         <v>2</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU30" t="n">
         <v>1.7</v>
@@ -6849,7 +6849,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>5409800</v>
+        <v>5409803</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -6869,59 +6869,59 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Provincial Osorno</t>
+          <t>General Velásquez</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Concepción</t>
+          <t>Deportes Valdivia</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>1</v>
       </c>
       <c r="L32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>['65', '70', '84', '90+5']</t>
+          <t>['31', '87']</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>['27', '90+4', '90+8']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="R32" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="S32" t="n">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="T32" t="n">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="U32" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V32" t="n">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -6942,13 +6942,13 @@
         <v>0</v>
       </c>
       <c r="AC32" t="n">
-        <v>1.98</v>
+        <v>2.28</v>
       </c>
       <c r="AD32" t="n">
         <v>3.1</v>
       </c>
       <c r="AE32" t="n">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="AF32" t="n">
         <v>0</v>
@@ -6963,10 +6963,10 @@
         <v>0</v>
       </c>
       <c r="AJ32" t="n">
-        <v>2.33</v>
+        <v>2.28</v>
       </c>
       <c r="AK32" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="AL32" t="n">
         <v>0</v>
@@ -6984,25 +6984,25 @@
         <v>0</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR32" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.2</v>
+        <v>1.6</v>
       </c>
       <c r="AU32" t="n">
-        <v>2.42</v>
+        <v>1.3</v>
       </c>
       <c r="AV32" t="n">
         <v>1.28</v>
       </c>
       <c r="AW32" t="n">
-        <v>3.7</v>
+        <v>2.58</v>
       </c>
       <c r="AX32" t="n">
         <v>0</v>
@@ -7029,22 +7029,22 @@
         <v>0</v>
       </c>
       <c r="BF32" t="n">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="BG32" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="BH32" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BI32" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BJ32" t="n">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="BK32" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33">
@@ -7052,7 +7052,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>5409803</v>
+        <v>5409800</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -7072,59 +7072,59 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>General Velásquez</t>
+          <t>Provincial Osorno</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Deportes Valdivia</t>
+          <t>Concepción</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" t="n">
         <v>1</v>
       </c>
       <c r="L33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N33" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>['31', '87']</t>
+          <t>['65', '70', '84', '90+5']</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['27', '90+4', '90+8']</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="R33" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S33" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T33" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="U33" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V33" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -7145,13 +7145,13 @@
         <v>0</v>
       </c>
       <c r="AC33" t="n">
-        <v>2.28</v>
+        <v>1.98</v>
       </c>
       <c r="AD33" t="n">
         <v>3.1</v>
       </c>
       <c r="AE33" t="n">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="AF33" t="n">
         <v>0</v>
@@ -7166,10 +7166,10 @@
         <v>0</v>
       </c>
       <c r="AJ33" t="n">
-        <v>2.28</v>
+        <v>2.33</v>
       </c>
       <c r="AK33" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="AL33" t="n">
         <v>0</v>
@@ -7187,25 +7187,25 @@
         <v>0</v>
       </c>
       <c r="AQ33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR33" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AS33" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.6</v>
+        <v>0.2</v>
       </c>
       <c r="AU33" t="n">
-        <v>1.3</v>
+        <v>2.42</v>
       </c>
       <c r="AV33" t="n">
         <v>1.28</v>
       </c>
       <c r="AW33" t="n">
-        <v>2.58</v>
+        <v>3.7</v>
       </c>
       <c r="AX33" t="n">
         <v>0</v>
@@ -7232,22 +7232,22 @@
         <v>0</v>
       </c>
       <c r="BF33" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BG33" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BH33" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BI33" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BJ33" t="n">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="BK33" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -7602,7 +7602,7 @@
         <v>2.2</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU35" t="n">
         <v>1.39</v>
@@ -8208,7 +8208,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT38" t="n">
         <v>1</v>
@@ -8411,7 +8411,7 @@
         <v>2</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT39" t="n">
         <v>1.17</v>
@@ -8617,7 +8617,7 @@
         <v>1.4</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU40" t="n">
         <v>1.66</v>
@@ -9023,7 +9023,7 @@
         <v>2</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU42" t="n">
         <v>1.47</v>
@@ -9082,7 +9082,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>5409816</v>
+        <v>5409814</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -9102,119 +9102,119 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Melipilla</t>
+          <t>General Velásquez</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>Deportes Linares</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J43" t="n">
         <v>1</v>
       </c>
       <c r="K43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
       <c r="N43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>['30', '85']</t>
+          <t>['10', '12', '53']</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>['43']</t>
+          <t>['7']</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R43" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S43" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T43" t="n">
         <v>2.6</v>
       </c>
       <c r="U43" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V43" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="W43" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="X43" t="n">
-        <v>2.62</v>
+        <v>2.47</v>
       </c>
       <c r="Y43" t="n">
-        <v>2.99</v>
+        <v>3.28</v>
       </c>
       <c r="Z43" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="AA43" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB43" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AC43" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AD43" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="AE43" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="AF43" t="n">
         <v>1.05</v>
       </c>
       <c r="AG43" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="AH43" t="n">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="AI43" t="n">
-        <v>2.93</v>
+        <v>2.78</v>
       </c>
       <c r="AJ43" t="n">
-        <v>2.1</v>
+        <v>2.35</v>
       </c>
       <c r="AK43" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="AL43" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP43" t="n">
         <v>1.83</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AO43" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AP43" t="n">
-        <v>1.73</v>
       </c>
       <c r="AQ43" t="n">
         <v>2.33</v>
@@ -9223,19 +9223,19 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU43" t="n">
-        <v>1.65</v>
+        <v>1.3</v>
       </c>
       <c r="AV43" t="n">
-        <v>1.52</v>
+        <v>1.61</v>
       </c>
       <c r="AW43" t="n">
-        <v>3.17</v>
+        <v>2.91</v>
       </c>
       <c r="AX43" t="n">
         <v>0</v>
@@ -9253,7 +9253,7 @@
         <v>0</v>
       </c>
       <c r="BC43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD43" t="n">
         <v>0</v>
@@ -9262,22 +9262,22 @@
         <v>0</v>
       </c>
       <c r="BF43" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BG43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH43" t="n">
         <v>8</v>
       </c>
       <c r="BI43" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BJ43" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BK43" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44">
@@ -9285,7 +9285,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>5409814</v>
+        <v>5409816</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -9305,119 +9305,119 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>General Velásquez</t>
+          <t>Melipilla</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Deportes Linares</t>
+          <t>Iberia</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
         <v>1</v>
       </c>
       <c r="K44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
       <c r="N44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>['10', '12', '53']</t>
+          <t>['30', '85']</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>['7']</t>
+          <t>['43']</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R44" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S44" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T44" t="n">
         <v>2.6</v>
       </c>
       <c r="U44" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V44" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="W44" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="X44" t="n">
-        <v>2.47</v>
+        <v>2.62</v>
       </c>
       <c r="Y44" t="n">
-        <v>3.28</v>
+        <v>2.99</v>
       </c>
       <c r="Z44" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="AA44" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB44" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AC44" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AD44" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="AE44" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AF44" t="n">
         <v>1.05</v>
       </c>
       <c r="AG44" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="AH44" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AI44" t="n">
-        <v>2.78</v>
+        <v>2.93</v>
       </c>
       <c r="AJ44" t="n">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="AK44" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="AL44" t="n">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="AM44" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="AN44" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="AO44" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AQ44" t="n">
         <v>2.33</v>
@@ -9426,19 +9426,19 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="AU44" t="n">
-        <v>1.3</v>
+        <v>1.65</v>
       </c>
       <c r="AV44" t="n">
-        <v>1.61</v>
+        <v>1.52</v>
       </c>
       <c r="AW44" t="n">
-        <v>2.91</v>
+        <v>3.17</v>
       </c>
       <c r="AX44" t="n">
         <v>0</v>
@@ -9456,7 +9456,7 @@
         <v>0</v>
       </c>
       <c r="BC44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BD44" t="n">
         <v>0</v>
@@ -9465,22 +9465,22 @@
         <v>0</v>
       </c>
       <c r="BF44" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BG44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH44" t="n">
         <v>8</v>
       </c>
       <c r="BI44" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="BJ44" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BK44" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45">
@@ -9629,7 +9629,7 @@
         <v>0.33</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT45" t="n">
         <v>0.83</v>
@@ -10444,7 +10444,7 @@
         <v>1.8</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU49" t="n">
         <v>1.97</v>
@@ -10644,7 +10644,7 @@
         <v>0.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT50" t="n">
         <v>0.83</v>
@@ -10850,7 +10850,7 @@
         <v>2</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU51" t="n">
         <v>1.45</v>
@@ -11256,7 +11256,7 @@
         <v>1.4</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU53" t="n">
         <v>1.83</v>
@@ -12474,7 +12474,7 @@
         <v>1.75</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU59" t="n">
         <v>2</v>
@@ -12674,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT60" t="n">
         <v>0.25</v>
@@ -12877,7 +12877,7 @@
         <v>0</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT61" t="n">
         <v>0.2</v>
@@ -13083,7 +13083,7 @@
         <v>3</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU62" t="n">
         <v>1.52</v>
@@ -13286,7 +13286,7 @@
         <v>2</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU63" t="n">
         <v>1.55</v>
@@ -13689,7 +13689,7 @@
         <v>1.25</v>
       </c>
       <c r="AS65" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT65" t="n">
         <v>1.6</v>
@@ -14556,6 +14556,818 @@
       </c>
       <c r="BK69" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>5409842</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Chile Segunda División</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45065.875</v>
+      </c>
+      <c r="F70" t="n">
+        <v>11</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Deportes Limache</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>General Velásquez</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="n">
+        <v>2</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>2</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>['21', '84']</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
+        <v>6</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>10</v>
+      </c>
+      <c r="T70" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U70" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V70" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="W70" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X70" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT70" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AU70" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AV70" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW70" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AX70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF70" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG70" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH70" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI70" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ70" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>5409840</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Chile Segunda División</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45066.66666666666</v>
+      </c>
+      <c r="F71" t="n">
+        <v>11</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Deportes Rengo</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Melipilla</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="n">
+        <v>2</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>['-1']</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>['-1']</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
+        <v>8</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>12</v>
+      </c>
+      <c r="T71" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U71" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V71" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W71" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X71" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL71" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS71" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT71" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU71" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV71" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW71" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF71" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG71" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH71" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI71" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ71" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>5409844</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Chile Segunda División</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45066.6875</v>
+      </c>
+      <c r="F72" t="n">
+        <v>11</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Deportes Valdivia</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Fernández Vial</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
+      <c r="K72" t="n">
+        <v>2</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="n">
+        <v>4</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>['18']</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>['22', '90+2', '90+7']</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
+        <v>2</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>6</v>
+      </c>
+      <c r="T72" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U72" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V72" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W72" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X72" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AT72" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU72" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AV72" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW72" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AX72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF72" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG72" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH72" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI72" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ72" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>5409839</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Chile Segunda División</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45066.70833333334</v>
+      </c>
+      <c r="F73" t="n">
+        <v>11</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>San Antonio Unido</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Trasandino</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="n">
+        <v>2</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="n">
+        <v>3</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>['18', '90+8']</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>9</v>
+      </c>
+      <c r="T73" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U73" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V73" t="n">
+        <v>4</v>
+      </c>
+      <c r="W73" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X73" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS73" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT73" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU73" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV73" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW73" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF73" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG73" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH73" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI73" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ73" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK73" t="n">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Chile Segunda División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Segunda División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK73"/>
+  <dimension ref="A1:BK76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT2" t="n">
         <v>0.83</v>
@@ -1106,7 +1106,7 @@
         <v>2</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT12" t="n">
         <v>1.33</v>
@@ -4151,7 +4151,7 @@
         <v>2</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>1</v>
       </c>
       <c r="AS19" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT19" t="n">
         <v>0.2</v>
@@ -4557,7 +4557,7 @@
         <v>1.8</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU20" t="n">
         <v>1.68</v>
@@ -5572,7 +5572,7 @@
         <v>2.2</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -5975,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AT27" t="n">
         <v>1.33</v>
@@ -6178,10 +6178,10 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU28" t="n">
         <v>1.41</v>
@@ -6790,7 +6790,7 @@
         <v>3</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AU31" t="n">
         <v>1.03</v>
@@ -7193,7 +7193,7 @@
         <v>0.5</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT33" t="n">
         <v>0.2</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AT36" t="n">
         <v>1.4</v>
@@ -8008,7 +8008,7 @@
         <v>2.2</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU37" t="n">
         <v>1.66</v>
@@ -9226,7 +9226,7 @@
         <v>2</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AU43" t="n">
         <v>1.3</v>
@@ -9429,7 +9429,7 @@
         <v>2.2</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU44" t="n">
         <v>1.65</v>
@@ -9832,7 +9832,7 @@
         <v>1.67</v>
       </c>
       <c r="AS46" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT46" t="n">
         <v>1.6</v>
@@ -10035,10 +10035,10 @@
         <v>1</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU47" t="n">
         <v>2.24</v>
@@ -10238,7 +10238,7 @@
         <v>1.33</v>
       </c>
       <c r="AS48" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AT48" t="n">
         <v>1.6</v>
@@ -12271,7 +12271,7 @@
         <v>3</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU58" t="n">
         <v>1.02</v>
@@ -12471,7 +12471,7 @@
         <v>0</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT59" t="n">
         <v>0.2</v>
@@ -12677,7 +12677,7 @@
         <v>1.6</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU60" t="n">
         <v>1.44</v>
@@ -12880,7 +12880,7 @@
         <v>1.5</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AU61" t="n">
         <v>1.77</v>
@@ -13080,7 +13080,7 @@
         <v>1</v>
       </c>
       <c r="AS62" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT62" t="n">
         <v>0.83</v>
@@ -14814,12 +14814,12 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>['-1']</t>
+          <t>['9004']</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>['-1']</t>
+          <t>['9001']</t>
         </is>
       </c>
       <c r="Q71" t="n">
@@ -15368,6 +15368,615 @@
       </c>
       <c r="BK73" t="n">
         <v>18</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>5409843</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Chile Segunda División</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45067.6875</v>
+      </c>
+      <c r="F74" t="n">
+        <v>11</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Provincial Osorno</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Deportes Linares</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
+      <c r="K74" t="n">
+        <v>2</v>
+      </c>
+      <c r="L74" t="n">
+        <v>2</v>
+      </c>
+      <c r="M74" t="n">
+        <v>2</v>
+      </c>
+      <c r="N74" t="n">
+        <v>4</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>['3', '90+3']</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>['31', '76']</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>9</v>
+      </c>
+      <c r="T74" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U74" t="n">
+        <v>2</v>
+      </c>
+      <c r="V74" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W74" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X74" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU74" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW74" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AX74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF74" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG74" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH74" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI74" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ74" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK74" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>5409845</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Chile Segunda División</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45067.6875</v>
+      </c>
+      <c r="F75" t="n">
+        <v>11</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Concepción</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Iberia</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="n">
+        <v>2</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="n">
+        <v>3</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>['80', '90']</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
+        <v>7</v>
+      </c>
+      <c r="R75" t="n">
+        <v>6</v>
+      </c>
+      <c r="S75" t="n">
+        <v>13</v>
+      </c>
+      <c r="T75" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U75" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V75" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W75" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X75" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AU75" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF75" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG75" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH75" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI75" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ75" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>5409841</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Chile Segunda División</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45067.75</v>
+      </c>
+      <c r="F76" t="n">
+        <v>11</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lautaro de Buin </t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Real San Joaquín</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="n">
+        <v>2</v>
+      </c>
+      <c r="N76" t="n">
+        <v>3</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>['4']</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>['57', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>2</v>
+      </c>
+      <c r="R76" t="n">
+        <v>11</v>
+      </c>
+      <c r="S76" t="n">
+        <v>13</v>
+      </c>
+      <c r="T76" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U76" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V76" t="n">
+        <v>4</v>
+      </c>
+      <c r="W76" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X76" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS76" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU76" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV76" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW76" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD76" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF76" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG76" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH76" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI76" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ76" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK76" t="n">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Chile Segunda División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Segunda División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK76"/>
+  <dimension ref="A1:BK83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>2</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AT6" t="n">
         <v>0.83</v>
@@ -1918,7 +1918,7 @@
         <v>3</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>1.5</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT10" t="n">
         <v>1.25</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT12" t="n">
         <v>1.33</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>2</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU16" t="n">
         <v>1.29</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT17" t="n">
         <v>0.83</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>2.5</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU19" t="n">
         <v>2.07</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AT20" t="n">
         <v>0.2</v>
@@ -4757,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AU21" t="n">
         <v>1.28</v>
@@ -4960,7 +4960,7 @@
         <v>1.5</v>
       </c>
       <c r="AS22" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT22" t="n">
         <v>1.17</v>
@@ -5166,7 +5166,7 @@
         <v>1.4</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU23" t="n">
         <v>1.43</v>
@@ -5569,7 +5569,7 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT25" t="n">
         <v>1</v>
@@ -5772,10 +5772,10 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU26" t="n">
         <v>1.53</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT30" t="n">
         <v>1.25</v>
@@ -6790,7 +6790,7 @@
         <v>3</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU31" t="n">
         <v>1.03</v>
@@ -6993,7 +6993,7 @@
         <v>2</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU32" t="n">
         <v>1.3</v>
@@ -7193,10 +7193,10 @@
         <v>0.5</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU33" t="n">
         <v>2.42</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AT34" t="n">
         <v>0.83</v>
@@ -7599,10 +7599,10 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AU35" t="n">
         <v>1.39</v>
@@ -7805,7 +7805,7 @@
         <v>0.6</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU36" t="n">
         <v>1.89</v>
@@ -8005,7 +8005,7 @@
         <v>1.5</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT37" t="n">
         <v>1</v>
@@ -8411,7 +8411,7 @@
         <v>2</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT39" t="n">
         <v>1.17</v>
@@ -8817,10 +8817,10 @@
         <v>2</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU41" t="n">
         <v>1.09</v>
@@ -9020,10 +9020,10 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AU42" t="n">
         <v>1.47</v>
@@ -9226,7 +9226,7 @@
         <v>2</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU43" t="n">
         <v>1.3</v>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT44" t="n">
         <v>0.2</v>
@@ -9835,7 +9835,7 @@
         <v>2.5</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU46" t="n">
         <v>1.54</v>
@@ -10035,7 +10035,7 @@
         <v>1</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT47" t="n">
         <v>1</v>
@@ -10241,7 +10241,7 @@
         <v>0.6</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU48" t="n">
         <v>1.83</v>
@@ -10441,7 +10441,7 @@
         <v>0.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AT49" t="n">
         <v>1.25</v>
@@ -11050,10 +11050,10 @@
         <v>1</v>
       </c>
       <c r="AS52" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU52" t="n">
         <v>1.54</v>
@@ -11459,7 +11459,7 @@
         <v>3</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU54" t="n">
         <v>1.02</v>
@@ -11659,7 +11659,7 @@
         <v>1.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT55" t="n">
         <v>1.17</v>
@@ -11862,7 +11862,7 @@
         <v>1</v>
       </c>
       <c r="AS56" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT56" t="n">
         <v>1</v>
@@ -12065,10 +12065,10 @@
         <v>1.75</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU57" t="n">
         <v>1.92</v>
@@ -12471,10 +12471,10 @@
         <v>0</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AU59" t="n">
         <v>2</v>
@@ -12674,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT60" t="n">
         <v>0.2</v>
@@ -12880,7 +12880,7 @@
         <v>1.5</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU61" t="n">
         <v>1.77</v>
@@ -13283,7 +13283,7 @@
         <v>2</v>
       </c>
       <c r="AS63" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT63" t="n">
         <v>1.33</v>
@@ -13489,7 +13489,7 @@
         <v>1.4</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU64" t="n">
         <v>1.7</v>
@@ -13692,7 +13692,7 @@
         <v>0.67</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU65" t="n">
         <v>1.07</v>
@@ -13892,7 +13892,7 @@
         <v>1</v>
       </c>
       <c r="AS66" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT66" t="n">
         <v>0.83</v>
@@ -14095,7 +14095,7 @@
         <v>1.2</v>
       </c>
       <c r="AS67" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT67" t="n">
         <v>1.17</v>
@@ -14501,10 +14501,10 @@
         <v>1.5</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU69" t="n">
         <v>1.07</v>
@@ -14707,7 +14707,7 @@
         <v>3</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AU70" t="n">
         <v>1.29</v>
@@ -14907,7 +14907,7 @@
         <v>0.8</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT71" t="n">
         <v>0.83</v>
@@ -15516,10 +15516,10 @@
         <v>0.2</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU74" t="n">
         <v>1.95</v>
@@ -15977,6 +15977,1427 @@
       </c>
       <c r="BK76" t="n">
         <v>24</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>5409851</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Chile Segunda División</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45073.66666666666</v>
+      </c>
+      <c r="F77" t="n">
+        <v>12</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Deportes Rengo</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Concepción</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="n">
+        <v>5</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>5</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>['33', '53', '67', '71', '78']</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>6</v>
+      </c>
+      <c r="S77" t="n">
+        <v>10</v>
+      </c>
+      <c r="T77" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U77" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V77" t="n">
+        <v>5</v>
+      </c>
+      <c r="W77" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X77" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL77" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO77" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP77" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR77" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AS77" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT77" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AU77" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV77" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW77" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF77" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG77" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH77" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI77" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ77" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK77" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>5409852</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Chile Segunda División</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45073.66666666666</v>
+      </c>
+      <c r="F78" t="n">
+        <v>12</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Real San Joaquín</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Deportes Valdivia</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>1</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>['65']</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>9</v>
+      </c>
+      <c r="S78" t="n">
+        <v>14</v>
+      </c>
+      <c r="T78" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U78" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V78" t="n">
+        <v>4</v>
+      </c>
+      <c r="W78" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X78" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS78" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AT78" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU78" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV78" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW78" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF78" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG78" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH78" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI78" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ78" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK78" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>5409849</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Chile Segunda División</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45073.66666666666</v>
+      </c>
+      <c r="F79" t="n">
+        <v>12</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Melipilla</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>General Velásquez</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="n">
+        <v>1</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>6</v>
+      </c>
+      <c r="S79" t="n">
+        <v>11</v>
+      </c>
+      <c r="T79" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U79" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V79" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W79" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X79" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT79" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU79" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW79" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF79" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG79" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH79" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI79" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ79" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>5409848</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Chile Segunda División</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45073.72916666666</v>
+      </c>
+      <c r="F80" t="n">
+        <v>12</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Trasandino</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lautaro de Buin </t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1</v>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="n">
+        <v>2</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>2</v>
+      </c>
+      <c r="S80" t="n">
+        <v>7</v>
+      </c>
+      <c r="T80" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U80" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V80" t="n">
+        <v>4</v>
+      </c>
+      <c r="W80" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X80" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT80" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU80" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV80" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW80" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AX80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF80" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG80" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH80" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI80" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ80" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>5409850</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Chile Segunda División</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45073.85416666666</v>
+      </c>
+      <c r="F81" t="n">
+        <v>12</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Iberia</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Deportes Linares</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2</v>
+      </c>
+      <c r="K81" t="n">
+        <v>3</v>
+      </c>
+      <c r="L81" t="n">
+        <v>2</v>
+      </c>
+      <c r="M81" t="n">
+        <v>3</v>
+      </c>
+      <c r="N81" t="n">
+        <v>5</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>['8', '90+7']</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>['25', '33', '60']</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
+        <v>11</v>
+      </c>
+      <c r="R81" t="n">
+        <v>6</v>
+      </c>
+      <c r="S81" t="n">
+        <v>17</v>
+      </c>
+      <c r="T81" t="n">
+        <v>3</v>
+      </c>
+      <c r="U81" t="n">
+        <v>2</v>
+      </c>
+      <c r="V81" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W81" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X81" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO81" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP81" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ81" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR81" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS81" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT81" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU81" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AV81" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW81" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AX81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF81" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG81" t="n">
+        <v>13</v>
+      </c>
+      <c r="BH81" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI81" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ81" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK81" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>5409846</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Chile Segunda División</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45074.66666666666</v>
+      </c>
+      <c r="F82" t="n">
+        <v>12</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Fernández Vial</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Deportes Limache</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="n">
+        <v>1</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>['90+8']</t>
+        </is>
+      </c>
+      <c r="Q82" t="n">
+        <v>2</v>
+      </c>
+      <c r="R82" t="n">
+        <v>8</v>
+      </c>
+      <c r="S82" t="n">
+        <v>10</v>
+      </c>
+      <c r="T82" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U82" t="n">
+        <v>2</v>
+      </c>
+      <c r="V82" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W82" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X82" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AJ82" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK82" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL82" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM82" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO82" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP82" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ82" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR82" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS82" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT82" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AU82" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV82" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW82" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF82" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG82" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH82" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI82" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ82" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>5409847</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Chile Segunda División</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45074.6875</v>
+      </c>
+      <c r="F83" t="n">
+        <v>12</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Provincial Osorno</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>San Antonio Unido</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="n">
+        <v>1</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="Q83" t="n">
+        <v>10</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>14</v>
+      </c>
+      <c r="T83" t="n">
+        <v>3</v>
+      </c>
+      <c r="U83" t="n">
+        <v>2</v>
+      </c>
+      <c r="V83" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W83" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X83" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK83" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO83" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP83" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ83" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR83" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS83" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT83" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU83" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AV83" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW83" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AX83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF83" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG83" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH83" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI83" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ83" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK83" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Chile Segunda División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Segunda División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="194">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -445,6 +445,21 @@
     <t>['8', '90+7']</t>
   </si>
   <si>
+    <t>['21']</t>
+  </si>
+  <si>
+    <t>['31', '76']</t>
+  </si>
+  <si>
+    <t>['52', '90+1']</t>
+  </si>
+  <si>
+    <t>['5']</t>
+  </si>
+  <si>
+    <t>['58']</t>
+  </si>
+  <si>
     <t>['90']</t>
   </si>
   <si>
@@ -556,9 +571,6 @@
     <t>['22', '90+2', '90+7']</t>
   </si>
   <si>
-    <t>['31', '76']</t>
-  </si>
-  <si>
     <t>['9']</t>
   </si>
   <si>
@@ -572,6 +584,18 @@
   </si>
   <si>
     <t>['90+8']</t>
+  </si>
+  <si>
+    <t>['53']</t>
+  </si>
+  <si>
+    <t>['26', '51']</t>
+  </si>
+  <si>
+    <t>['51']</t>
+  </si>
+  <si>
+    <t>['23', '68', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -933,7 +957,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK83"/>
+  <dimension ref="A1:BK90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1177,7 +1201,7 @@
         <v>79</v>
       </c>
       <c r="P2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1264,10 +1288,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT2">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1368,7 +1392,7 @@
         <v>80</v>
       </c>
       <c r="P3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1559,7 +1583,7 @@
         <v>81</v>
       </c>
       <c r="P4" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1646,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT4">
         <v>0.17</v>
@@ -1750,7 +1774,7 @@
         <v>82</v>
       </c>
       <c r="P5" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -1837,10 +1861,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AT5">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2031,7 +2055,7 @@
         <v>1.67</v>
       </c>
       <c r="AT6">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2219,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AT7">
         <v>2.17</v>
@@ -2323,7 +2347,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="Q8">
         <v>12</v>
@@ -2410,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT8">
         <v>1.33</v>
@@ -2514,7 +2538,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Q9">
         <v>10</v>
@@ -2601,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AT9">
         <v>1</v>
@@ -2705,7 +2729,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -2795,7 +2819,7 @@
         <v>1.83</v>
       </c>
       <c r="AT10">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2896,7 +2920,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="Q11">
         <v>2</v>
@@ -2983,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT11">
         <v>1</v>
@@ -3087,7 +3111,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q12">
         <v>9</v>
@@ -3177,7 +3201,7 @@
         <v>1.33</v>
       </c>
       <c r="AT12">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3278,7 +3302,7 @@
         <v>82</v>
       </c>
       <c r="P13" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3556,10 +3580,10 @@
         <v>3</v>
       </c>
       <c r="AS14">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AT14">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU14">
         <v>1.47</v>
@@ -3747,10 +3771,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AT15">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU15">
         <v>0.8</v>
@@ -3851,7 +3875,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -3938,7 +3962,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT16">
         <v>2.17</v>
@@ -4042,7 +4066,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -4132,7 +4156,7 @@
         <v>2.17</v>
       </c>
       <c r="AT17">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU17">
         <v>1.34</v>
@@ -4511,7 +4535,7 @@
         <v>1</v>
       </c>
       <c r="AS19">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT19">
         <v>0.17</v>
@@ -4615,7 +4639,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -4705,7 +4729,7 @@
         <v>1.67</v>
       </c>
       <c r="AT20">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU20">
         <v>1.68</v>
@@ -4997,7 +5021,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5087,7 +5111,7 @@
         <v>1.67</v>
       </c>
       <c r="AT22">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU22">
         <v>1.6</v>
@@ -5188,7 +5212,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5275,7 +5299,7 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT23">
         <v>1.33</v>
@@ -5379,7 +5403,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q24">
         <v>13</v>
@@ -5466,7 +5490,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT24">
         <v>1</v>
@@ -5952,7 +5976,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q27">
         <v>10</v>
@@ -6039,10 +6063,10 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AT27">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU27">
         <v>2.07</v>
@@ -6143,7 +6167,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -6230,10 +6254,10 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT28">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU28">
         <v>1.41</v>
@@ -6421,10 +6445,10 @@
         <v>0.5</v>
       </c>
       <c r="AS29">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT29">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU29">
         <v>2.24</v>
@@ -6615,7 +6639,7 @@
         <v>2.17</v>
       </c>
       <c r="AT30">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU30">
         <v>1.7</v>
@@ -6803,7 +6827,7 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AT31">
         <v>0.71</v>
@@ -6994,7 +7018,7 @@
         <v>2</v>
       </c>
       <c r="AS32">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT32">
         <v>1.33</v>
@@ -7098,7 +7122,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7289,7 +7313,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7379,7 +7403,7 @@
         <v>1.67</v>
       </c>
       <c r="AT34">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU34">
         <v>1.82</v>
@@ -7671,7 +7695,7 @@
         <v>96</v>
       </c>
       <c r="P36" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -7758,7 +7782,7 @@
         <v>1.5</v>
       </c>
       <c r="AS36">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AT36">
         <v>2.17</v>
@@ -7862,7 +7886,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8140,7 +8164,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AT38">
         <v>1</v>
@@ -8334,7 +8358,7 @@
         <v>1.83</v>
       </c>
       <c r="AT39">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU39">
         <v>1.27</v>
@@ -8435,7 +8459,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -8522,10 +8546,10 @@
         <v>3</v>
       </c>
       <c r="AS40">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT40">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU40">
         <v>1.66</v>
@@ -8626,7 +8650,7 @@
         <v>111</v>
       </c>
       <c r="P41" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -9008,7 +9032,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -9095,7 +9119,7 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT43">
         <v>0.71</v>
@@ -9199,7 +9223,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q44">
         <v>8</v>
@@ -9289,7 +9313,7 @@
         <v>1.83</v>
       </c>
       <c r="AT44">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU44">
         <v>1.65</v>
@@ -9390,7 +9414,7 @@
         <v>115</v>
       </c>
       <c r="P45" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9477,10 +9501,10 @@
         <v>0.33</v>
       </c>
       <c r="AS45">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT45">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU45">
         <v>1.88</v>
@@ -9668,7 +9692,7 @@
         <v>1.67</v>
       </c>
       <c r="AS46">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT46">
         <v>1.83</v>
@@ -9772,7 +9796,7 @@
         <v>117</v>
       </c>
       <c r="P47" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -9963,7 +9987,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -10050,7 +10074,7 @@
         <v>1.33</v>
       </c>
       <c r="AS48">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AT48">
         <v>1.33</v>
@@ -10244,7 +10268,7 @@
         <v>1.67</v>
       </c>
       <c r="AT49">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU49">
         <v>1.97</v>
@@ -10345,7 +10369,7 @@
         <v>119</v>
       </c>
       <c r="P50" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q50">
         <v>9</v>
@@ -10432,10 +10456,10 @@
         <v>0.5</v>
       </c>
       <c r="AS50">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AT50">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU50">
         <v>1.15</v>
@@ -10623,10 +10647,10 @@
         <v>2.33</v>
       </c>
       <c r="AS51">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT51">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU51">
         <v>1.45</v>
@@ -10727,7 +10751,7 @@
         <v>120</v>
       </c>
       <c r="P52" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q52">
         <v>6</v>
@@ -10918,7 +10942,7 @@
         <v>82</v>
       </c>
       <c r="P53" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -11005,10 +11029,10 @@
         <v>0.33</v>
       </c>
       <c r="AS53">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT53">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU53">
         <v>1.83</v>
@@ -11196,7 +11220,7 @@
         <v>0.33</v>
       </c>
       <c r="AS54">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AT54">
         <v>0.17</v>
@@ -11390,7 +11414,7 @@
         <v>1.83</v>
       </c>
       <c r="AT55">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU55">
         <v>1.04</v>
@@ -11491,7 +11515,7 @@
         <v>123</v>
       </c>
       <c r="P56" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q56">
         <v>9</v>
@@ -11873,7 +11897,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -11960,7 +11984,7 @@
         <v>0.75</v>
       </c>
       <c r="AS58">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AT58">
         <v>1</v>
@@ -12255,7 +12279,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12345,7 +12369,7 @@
         <v>1.83</v>
       </c>
       <c r="AT60">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU60">
         <v>1.44</v>
@@ -12533,7 +12557,7 @@
         <v>0</v>
       </c>
       <c r="AS61">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT61">
         <v>0.71</v>
@@ -12724,10 +12748,10 @@
         <v>1</v>
       </c>
       <c r="AS62">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT62">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU62">
         <v>1.52</v>
@@ -12828,7 +12852,7 @@
         <v>127</v>
       </c>
       <c r="P63" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -12918,7 +12942,7 @@
         <v>2.17</v>
       </c>
       <c r="AT63">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU63">
         <v>1.55</v>
@@ -13106,7 +13130,7 @@
         <v>0.25</v>
       </c>
       <c r="AS64">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT64">
         <v>0.17</v>
@@ -13210,7 +13234,7 @@
         <v>129</v>
       </c>
       <c r="P65" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q65">
         <v>9</v>
@@ -13297,7 +13321,7 @@
         <v>1.25</v>
       </c>
       <c r="AS65">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AT65">
         <v>1.83</v>
@@ -13491,7 +13515,7 @@
         <v>1.67</v>
       </c>
       <c r="AT66">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU66">
         <v>1.47</v>
@@ -13592,7 +13616,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q67">
         <v>16</v>
@@ -13682,7 +13706,7 @@
         <v>1.83</v>
       </c>
       <c r="AT67">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU67">
         <v>1.64</v>
@@ -13783,7 +13807,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q68">
         <v>6</v>
@@ -13870,7 +13894,7 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT68">
         <v>1</v>
@@ -13974,7 +13998,7 @@
         <v>133</v>
       </c>
       <c r="P69" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q69">
         <v>9</v>
@@ -14252,7 +14276,7 @@
         <v>0.25</v>
       </c>
       <c r="AS70">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AT70">
         <v>0.67</v>
@@ -14356,7 +14380,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q71">
         <v>8</v>
@@ -14446,7 +14470,7 @@
         <v>1.83</v>
       </c>
       <c r="AT71">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU71">
         <v>1.44</v>
@@ -14547,7 +14571,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q72">
         <v>2</v>
@@ -14634,10 +14658,10 @@
         <v>0.67</v>
       </c>
       <c r="AS72">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AT72">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU72">
         <v>1.14</v>
@@ -14825,10 +14849,10 @@
         <v>1.6</v>
       </c>
       <c r="AS73">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT73">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU73">
         <v>1.7</v>
@@ -14929,7 +14953,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -15120,7 +15144,7 @@
         <v>139</v>
       </c>
       <c r="P75" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q75">
         <v>7</v>
@@ -15207,10 +15231,10 @@
         <v>0.25</v>
       </c>
       <c r="AS75">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AT75">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU75">
         <v>1.83</v>
@@ -15311,7 +15335,7 @@
         <v>128</v>
       </c>
       <c r="P76" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q76">
         <v>2</v>
@@ -15398,7 +15422,7 @@
         <v>0.6</v>
       </c>
       <c r="AS76">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT76">
         <v>1</v>
@@ -15884,7 +15908,7 @@
         <v>82</v>
       </c>
       <c r="P79" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -16266,7 +16290,7 @@
         <v>142</v>
       </c>
       <c r="P81" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q81">
         <v>11</v>
@@ -16457,7 +16481,7 @@
         <v>82</v>
       </c>
       <c r="P82" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -16790,6 +16814,1343 @@
       </c>
       <c r="BK83">
         <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:63">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>5409853</v>
+      </c>
+      <c r="C84" t="s">
+        <v>63</v>
+      </c>
+      <c r="D84" t="s">
+        <v>64</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45079.875</v>
+      </c>
+      <c r="F84">
+        <v>13</v>
+      </c>
+      <c r="G84" t="s">
+        <v>70</v>
+      </c>
+      <c r="H84" t="s">
+        <v>69</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="N84">
+        <v>2</v>
+      </c>
+      <c r="O84" t="s">
+        <v>143</v>
+      </c>
+      <c r="P84" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q84">
+        <v>5</v>
+      </c>
+      <c r="R84">
+        <v>5</v>
+      </c>
+      <c r="S84">
+        <v>10</v>
+      </c>
+      <c r="T84">
+        <v>2.25</v>
+      </c>
+      <c r="U84">
+        <v>2</v>
+      </c>
+      <c r="V84">
+        <v>6</v>
+      </c>
+      <c r="W84">
+        <v>1.51</v>
+      </c>
+      <c r="X84">
+        <v>2.39</v>
+      </c>
+      <c r="Y84">
+        <v>3.42</v>
+      </c>
+      <c r="Z84">
+        <v>1.27</v>
+      </c>
+      <c r="AA84">
+        <v>8.9</v>
+      </c>
+      <c r="AB84">
+        <v>1.03</v>
+      </c>
+      <c r="AC84">
+        <v>1.57</v>
+      </c>
+      <c r="AD84">
+        <v>3.6</v>
+      </c>
+      <c r="AE84">
+        <v>5</v>
+      </c>
+      <c r="AF84">
+        <v>1.07</v>
+      </c>
+      <c r="AG84">
+        <v>8.5</v>
+      </c>
+      <c r="AH84">
+        <v>1.44</v>
+      </c>
+      <c r="AI84">
+        <v>2.51</v>
+      </c>
+      <c r="AJ84">
+        <v>2.35</v>
+      </c>
+      <c r="AK84">
+        <v>1.57</v>
+      </c>
+      <c r="AL84">
+        <v>2.21</v>
+      </c>
+      <c r="AM84">
+        <v>1.56</v>
+      </c>
+      <c r="AN84">
+        <v>1.15</v>
+      </c>
+      <c r="AO84">
+        <v>1.28</v>
+      </c>
+      <c r="AP84">
+        <v>1.94</v>
+      </c>
+      <c r="AQ84">
+        <v>3</v>
+      </c>
+      <c r="AR84">
+        <v>1.33</v>
+      </c>
+      <c r="AS84">
+        <v>2.71</v>
+      </c>
+      <c r="AT84">
+        <v>1.29</v>
+      </c>
+      <c r="AU84">
+        <v>1.35</v>
+      </c>
+      <c r="AV84">
+        <v>1.57</v>
+      </c>
+      <c r="AW84">
+        <v>2.92</v>
+      </c>
+      <c r="AX84">
+        <v>0</v>
+      </c>
+      <c r="AY84">
+        <v>0</v>
+      </c>
+      <c r="AZ84">
+        <v>0</v>
+      </c>
+      <c r="BA84">
+        <v>0</v>
+      </c>
+      <c r="BB84">
+        <v>0</v>
+      </c>
+      <c r="BC84">
+        <v>0</v>
+      </c>
+      <c r="BD84">
+        <v>0</v>
+      </c>
+      <c r="BE84">
+        <v>0</v>
+      </c>
+      <c r="BF84">
+        <v>6</v>
+      </c>
+      <c r="BG84">
+        <v>4</v>
+      </c>
+      <c r="BH84">
+        <v>8</v>
+      </c>
+      <c r="BI84">
+        <v>6</v>
+      </c>
+      <c r="BJ84">
+        <v>14</v>
+      </c>
+      <c r="BK84">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:63">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>5409856</v>
+      </c>
+      <c r="C85" t="s">
+        <v>63</v>
+      </c>
+      <c r="D85" t="s">
+        <v>64</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45080.66666666666</v>
+      </c>
+      <c r="F85">
+        <v>13</v>
+      </c>
+      <c r="G85" t="s">
+        <v>74</v>
+      </c>
+      <c r="H85" t="s">
+        <v>76</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>2</v>
+      </c>
+      <c r="L85">
+        <v>2</v>
+      </c>
+      <c r="M85">
+        <v>2</v>
+      </c>
+      <c r="N85">
+        <v>4</v>
+      </c>
+      <c r="O85" t="s">
+        <v>144</v>
+      </c>
+      <c r="P85" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q85">
+        <v>12</v>
+      </c>
+      <c r="R85">
+        <v>3</v>
+      </c>
+      <c r="S85">
+        <v>15</v>
+      </c>
+      <c r="T85">
+        <v>2.88</v>
+      </c>
+      <c r="U85">
+        <v>2.1</v>
+      </c>
+      <c r="V85">
+        <v>3.4</v>
+      </c>
+      <c r="W85">
+        <v>1.36</v>
+      </c>
+      <c r="X85">
+        <v>2.88</v>
+      </c>
+      <c r="Y85">
+        <v>2.88</v>
+      </c>
+      <c r="Z85">
+        <v>1.36</v>
+      </c>
+      <c r="AA85">
+        <v>7</v>
+      </c>
+      <c r="AB85">
+        <v>1.07</v>
+      </c>
+      <c r="AC85">
+        <v>2.37</v>
+      </c>
+      <c r="AD85">
+        <v>3.13</v>
+      </c>
+      <c r="AE85">
+        <v>2.96</v>
+      </c>
+      <c r="AF85">
+        <v>1.04</v>
+      </c>
+      <c r="AG85">
+        <v>9.5</v>
+      </c>
+      <c r="AH85">
+        <v>1.29</v>
+      </c>
+      <c r="AI85">
+        <v>3.24</v>
+      </c>
+      <c r="AJ85">
+        <v>1.93</v>
+      </c>
+      <c r="AK85">
+        <v>1.85</v>
+      </c>
+      <c r="AL85">
+        <v>1.69</v>
+      </c>
+      <c r="AM85">
+        <v>2.11</v>
+      </c>
+      <c r="AN85">
+        <v>1.33</v>
+      </c>
+      <c r="AO85">
+        <v>1.29</v>
+      </c>
+      <c r="AP85">
+        <v>1.53</v>
+      </c>
+      <c r="AQ85">
+        <v>1.4</v>
+      </c>
+      <c r="AR85">
+        <v>0.83</v>
+      </c>
+      <c r="AS85">
+        <v>1.33</v>
+      </c>
+      <c r="AT85">
+        <v>0.86</v>
+      </c>
+      <c r="AU85">
+        <v>1.67</v>
+      </c>
+      <c r="AV85">
+        <v>1.08</v>
+      </c>
+      <c r="AW85">
+        <v>2.75</v>
+      </c>
+      <c r="AX85">
+        <v>0</v>
+      </c>
+      <c r="AY85">
+        <v>0</v>
+      </c>
+      <c r="AZ85">
+        <v>0</v>
+      </c>
+      <c r="BA85">
+        <v>0</v>
+      </c>
+      <c r="BB85">
+        <v>0</v>
+      </c>
+      <c r="BC85">
+        <v>0</v>
+      </c>
+      <c r="BD85">
+        <v>0</v>
+      </c>
+      <c r="BE85">
+        <v>0</v>
+      </c>
+      <c r="BF85">
+        <v>6</v>
+      </c>
+      <c r="BG85">
+        <v>4</v>
+      </c>
+      <c r="BH85">
+        <v>11</v>
+      </c>
+      <c r="BI85">
+        <v>6</v>
+      </c>
+      <c r="BJ85">
+        <v>17</v>
+      </c>
+      <c r="BK85">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:63">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>5409858</v>
+      </c>
+      <c r="C86" t="s">
+        <v>63</v>
+      </c>
+      <c r="D86" t="s">
+        <v>64</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45080.6875</v>
+      </c>
+      <c r="F86">
+        <v>13</v>
+      </c>
+      <c r="G86" t="s">
+        <v>68</v>
+      </c>
+      <c r="H86" t="s">
+        <v>78</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86" t="s">
+        <v>98</v>
+      </c>
+      <c r="P86" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q86">
+        <v>5</v>
+      </c>
+      <c r="R86">
+        <v>8</v>
+      </c>
+      <c r="S86">
+        <v>13</v>
+      </c>
+      <c r="T86">
+        <v>2.75</v>
+      </c>
+      <c r="U86">
+        <v>2.1</v>
+      </c>
+      <c r="V86">
+        <v>3.5</v>
+      </c>
+      <c r="W86">
+        <v>1.4</v>
+      </c>
+      <c r="X86">
+        <v>2.75</v>
+      </c>
+      <c r="Y86">
+        <v>3</v>
+      </c>
+      <c r="Z86">
+        <v>1.33</v>
+      </c>
+      <c r="AA86">
+        <v>7.5</v>
+      </c>
+      <c r="AB86">
+        <v>1.06</v>
+      </c>
+      <c r="AC86">
+        <v>2.17</v>
+      </c>
+      <c r="AD86">
+        <v>3.32</v>
+      </c>
+      <c r="AE86">
+        <v>3.15</v>
+      </c>
+      <c r="AF86">
+        <v>1.04</v>
+      </c>
+      <c r="AG86">
+        <v>9</v>
+      </c>
+      <c r="AH86">
+        <v>1.3</v>
+      </c>
+      <c r="AI86">
+        <v>3.2</v>
+      </c>
+      <c r="AJ86">
+        <v>1.95</v>
+      </c>
+      <c r="AK86">
+        <v>1.83</v>
+      </c>
+      <c r="AL86">
+        <v>1.7</v>
+      </c>
+      <c r="AM86">
+        <v>2.1</v>
+      </c>
+      <c r="AN86">
+        <v>1.3</v>
+      </c>
+      <c r="AO86">
+        <v>1.25</v>
+      </c>
+      <c r="AP86">
+        <v>1.6</v>
+      </c>
+      <c r="AQ86">
+        <v>0.67</v>
+      </c>
+      <c r="AR86">
+        <v>0.2</v>
+      </c>
+      <c r="AS86">
+        <v>1</v>
+      </c>
+      <c r="AT86">
+        <v>0.17</v>
+      </c>
+      <c r="AU86">
+        <v>1.17</v>
+      </c>
+      <c r="AV86">
+        <v>1.22</v>
+      </c>
+      <c r="AW86">
+        <v>2.39</v>
+      </c>
+      <c r="AX86">
+        <v>0</v>
+      </c>
+      <c r="AY86">
+        <v>0</v>
+      </c>
+      <c r="AZ86">
+        <v>0</v>
+      </c>
+      <c r="BA86">
+        <v>0</v>
+      </c>
+      <c r="BB86">
+        <v>0</v>
+      </c>
+      <c r="BC86">
+        <v>0</v>
+      </c>
+      <c r="BD86">
+        <v>0</v>
+      </c>
+      <c r="BE86">
+        <v>0</v>
+      </c>
+      <c r="BF86">
+        <v>8</v>
+      </c>
+      <c r="BG86">
+        <v>6</v>
+      </c>
+      <c r="BH86">
+        <v>4</v>
+      </c>
+      <c r="BI86">
+        <v>6</v>
+      </c>
+      <c r="BJ86">
+        <v>12</v>
+      </c>
+      <c r="BK86">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:63">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>5409857</v>
+      </c>
+      <c r="C87" t="s">
+        <v>63</v>
+      </c>
+      <c r="D87" t="s">
+        <v>64</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45080.70833333334</v>
+      </c>
+      <c r="F87">
+        <v>13</v>
+      </c>
+      <c r="G87" t="s">
+        <v>71</v>
+      </c>
+      <c r="H87" t="s">
+        <v>77</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87" t="s">
+        <v>82</v>
+      </c>
+      <c r="P87" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q87">
+        <v>4</v>
+      </c>
+      <c r="R87">
+        <v>5</v>
+      </c>
+      <c r="S87">
+        <v>9</v>
+      </c>
+      <c r="T87">
+        <v>2.6</v>
+      </c>
+      <c r="U87">
+        <v>2</v>
+      </c>
+      <c r="V87">
+        <v>4.5</v>
+      </c>
+      <c r="W87">
+        <v>1.44</v>
+      </c>
+      <c r="X87">
+        <v>2.62</v>
+      </c>
+      <c r="Y87">
+        <v>3.24</v>
+      </c>
+      <c r="Z87">
+        <v>1.3</v>
+      </c>
+      <c r="AA87">
+        <v>8.5</v>
+      </c>
+      <c r="AB87">
+        <v>1.05</v>
+      </c>
+      <c r="AC87">
+        <v>1.97</v>
+      </c>
+      <c r="AD87">
+        <v>3.22</v>
+      </c>
+      <c r="AE87">
+        <v>3.82</v>
+      </c>
+      <c r="AF87">
+        <v>1.06</v>
+      </c>
+      <c r="AG87">
+        <v>7.5</v>
+      </c>
+      <c r="AH87">
+        <v>1.4</v>
+      </c>
+      <c r="AI87">
+        <v>2.75</v>
+      </c>
+      <c r="AJ87">
+        <v>2.15</v>
+      </c>
+      <c r="AK87">
+        <v>1.55</v>
+      </c>
+      <c r="AL87">
+        <v>2.04</v>
+      </c>
+      <c r="AM87">
+        <v>1.74</v>
+      </c>
+      <c r="AN87">
+        <v>1.2</v>
+      </c>
+      <c r="AO87">
+        <v>1.25</v>
+      </c>
+      <c r="AP87">
+        <v>1.8</v>
+      </c>
+      <c r="AQ87">
+        <v>1.5</v>
+      </c>
+      <c r="AR87">
+        <v>1.25</v>
+      </c>
+      <c r="AS87">
+        <v>1.43</v>
+      </c>
+      <c r="AT87">
+        <v>1.2</v>
+      </c>
+      <c r="AU87">
+        <v>1.67</v>
+      </c>
+      <c r="AV87">
+        <v>1.2</v>
+      </c>
+      <c r="AW87">
+        <v>2.87</v>
+      </c>
+      <c r="AX87">
+        <v>0</v>
+      </c>
+      <c r="AY87">
+        <v>0</v>
+      </c>
+      <c r="AZ87">
+        <v>0</v>
+      </c>
+      <c r="BA87">
+        <v>0</v>
+      </c>
+      <c r="BB87">
+        <v>0</v>
+      </c>
+      <c r="BC87">
+        <v>0</v>
+      </c>
+      <c r="BD87">
+        <v>0</v>
+      </c>
+      <c r="BE87">
+        <v>0</v>
+      </c>
+      <c r="BF87">
+        <v>4</v>
+      </c>
+      <c r="BG87">
+        <v>3</v>
+      </c>
+      <c r="BH87">
+        <v>4</v>
+      </c>
+      <c r="BI87">
+        <v>7</v>
+      </c>
+      <c r="BJ87">
+        <v>8</v>
+      </c>
+      <c r="BK87">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:63">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>5409859</v>
+      </c>
+      <c r="C88" t="s">
+        <v>63</v>
+      </c>
+      <c r="D88" t="s">
+        <v>64</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45080.75</v>
+      </c>
+      <c r="F88">
+        <v>13</v>
+      </c>
+      <c r="G88" t="s">
+        <v>65</v>
+      </c>
+      <c r="H88" t="s">
+        <v>75</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>2</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>2</v>
+      </c>
+      <c r="O88" t="s">
+        <v>145</v>
+      </c>
+      <c r="P88" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q88">
+        <v>3</v>
+      </c>
+      <c r="R88">
+        <v>5</v>
+      </c>
+      <c r="S88">
+        <v>8</v>
+      </c>
+      <c r="T88">
+        <v>2.5</v>
+      </c>
+      <c r="U88">
+        <v>2.1</v>
+      </c>
+      <c r="V88">
+        <v>4.33</v>
+      </c>
+      <c r="W88">
+        <v>1.4</v>
+      </c>
+      <c r="X88">
+        <v>2.75</v>
+      </c>
+      <c r="Y88">
+        <v>3</v>
+      </c>
+      <c r="Z88">
+        <v>1.33</v>
+      </c>
+      <c r="AA88">
+        <v>7.5</v>
+      </c>
+      <c r="AB88">
+        <v>1.06</v>
+      </c>
+      <c r="AC88">
+        <v>1.8</v>
+      </c>
+      <c r="AD88">
+        <v>3.2</v>
+      </c>
+      <c r="AE88">
+        <v>3.9</v>
+      </c>
+      <c r="AF88">
+        <v>1.04</v>
+      </c>
+      <c r="AG88">
+        <v>9</v>
+      </c>
+      <c r="AH88">
+        <v>1.3</v>
+      </c>
+      <c r="AI88">
+        <v>3.2</v>
+      </c>
+      <c r="AJ88">
+        <v>1.95</v>
+      </c>
+      <c r="AK88">
+        <v>1.75</v>
+      </c>
+      <c r="AL88">
+        <v>1.84</v>
+      </c>
+      <c r="AM88">
+        <v>1.92</v>
+      </c>
+      <c r="AN88">
+        <v>1.17</v>
+      </c>
+      <c r="AO88">
+        <v>1.25</v>
+      </c>
+      <c r="AP88">
+        <v>1.91</v>
+      </c>
+      <c r="AQ88">
+        <v>2.5</v>
+      </c>
+      <c r="AR88">
+        <v>1.17</v>
+      </c>
+      <c r="AS88">
+        <v>2.57</v>
+      </c>
+      <c r="AT88">
+        <v>1</v>
+      </c>
+      <c r="AU88">
+        <v>1.63</v>
+      </c>
+      <c r="AV88">
+        <v>0.92</v>
+      </c>
+      <c r="AW88">
+        <v>2.55</v>
+      </c>
+      <c r="AX88">
+        <v>0</v>
+      </c>
+      <c r="AY88">
+        <v>0</v>
+      </c>
+      <c r="AZ88">
+        <v>0</v>
+      </c>
+      <c r="BA88">
+        <v>0</v>
+      </c>
+      <c r="BB88">
+        <v>0</v>
+      </c>
+      <c r="BC88">
+        <v>0</v>
+      </c>
+      <c r="BD88">
+        <v>0</v>
+      </c>
+      <c r="BE88">
+        <v>0</v>
+      </c>
+      <c r="BF88">
+        <v>6</v>
+      </c>
+      <c r="BG88">
+        <v>2</v>
+      </c>
+      <c r="BH88">
+        <v>6</v>
+      </c>
+      <c r="BI88">
+        <v>9</v>
+      </c>
+      <c r="BJ88">
+        <v>12</v>
+      </c>
+      <c r="BK88">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:63">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>5409855</v>
+      </c>
+      <c r="C89" t="s">
+        <v>63</v>
+      </c>
+      <c r="D89" t="s">
+        <v>64</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45081.66666666666</v>
+      </c>
+      <c r="F89">
+        <v>13</v>
+      </c>
+      <c r="G89" t="s">
+        <v>67</v>
+      </c>
+      <c r="H89" t="s">
+        <v>66</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <v>2</v>
+      </c>
+      <c r="O89" t="s">
+        <v>146</v>
+      </c>
+      <c r="P89" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q89">
+        <v>2</v>
+      </c>
+      <c r="R89">
+        <v>8</v>
+      </c>
+      <c r="S89">
+        <v>10</v>
+      </c>
+      <c r="T89">
+        <v>3.1</v>
+      </c>
+      <c r="U89">
+        <v>2</v>
+      </c>
+      <c r="V89">
+        <v>3.5</v>
+      </c>
+      <c r="W89">
+        <v>1.45</v>
+      </c>
+      <c r="X89">
+        <v>2.56</v>
+      </c>
+      <c r="Y89">
+        <v>3.1</v>
+      </c>
+      <c r="Z89">
+        <v>1.32</v>
+      </c>
+      <c r="AA89">
+        <v>8.4</v>
+      </c>
+      <c r="AB89">
+        <v>1.04</v>
+      </c>
+      <c r="AC89">
+        <v>2.25</v>
+      </c>
+      <c r="AD89">
+        <v>3.1</v>
+      </c>
+      <c r="AE89">
+        <v>2.72</v>
+      </c>
+      <c r="AF89">
+        <v>1.06</v>
+      </c>
+      <c r="AG89">
+        <v>7.5</v>
+      </c>
+      <c r="AH89">
+        <v>1.36</v>
+      </c>
+      <c r="AI89">
+        <v>2.79</v>
+      </c>
+      <c r="AJ89">
+        <v>1.99</v>
+      </c>
+      <c r="AK89">
+        <v>1.64</v>
+      </c>
+      <c r="AL89">
+        <v>1.82</v>
+      </c>
+      <c r="AM89">
+        <v>1.94</v>
+      </c>
+      <c r="AN89">
+        <v>1.36</v>
+      </c>
+      <c r="AO89">
+        <v>1.3</v>
+      </c>
+      <c r="AP89">
+        <v>1.52</v>
+      </c>
+      <c r="AQ89">
+        <v>1.5</v>
+      </c>
+      <c r="AR89">
+        <v>1</v>
+      </c>
+      <c r="AS89">
+        <v>1.43</v>
+      </c>
+      <c r="AT89">
+        <v>1</v>
+      </c>
+      <c r="AU89">
+        <v>1.44</v>
+      </c>
+      <c r="AV89">
+        <v>1.63</v>
+      </c>
+      <c r="AW89">
+        <v>3.07</v>
+      </c>
+      <c r="AX89">
+        <v>0</v>
+      </c>
+      <c r="AY89">
+        <v>0</v>
+      </c>
+      <c r="AZ89">
+        <v>0</v>
+      </c>
+      <c r="BA89">
+        <v>1.2</v>
+      </c>
+      <c r="BB89">
+        <v>1.37</v>
+      </c>
+      <c r="BC89">
+        <v>2.1</v>
+      </c>
+      <c r="BD89">
+        <v>2.1</v>
+      </c>
+      <c r="BE89">
+        <v>2.85</v>
+      </c>
+      <c r="BF89">
+        <v>8</v>
+      </c>
+      <c r="BG89">
+        <v>7</v>
+      </c>
+      <c r="BH89">
+        <v>10</v>
+      </c>
+      <c r="BI89">
+        <v>11</v>
+      </c>
+      <c r="BJ89">
+        <v>18</v>
+      </c>
+      <c r="BK89">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:63">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>5409854</v>
+      </c>
+      <c r="C90" t="s">
+        <v>63</v>
+      </c>
+      <c r="D90" t="s">
+        <v>64</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45081.6875</v>
+      </c>
+      <c r="F90">
+        <v>13</v>
+      </c>
+      <c r="G90" t="s">
+        <v>72</v>
+      </c>
+      <c r="H90" t="s">
+        <v>73</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90">
+        <v>3</v>
+      </c>
+      <c r="N90">
+        <v>4</v>
+      </c>
+      <c r="O90" t="s">
+        <v>147</v>
+      </c>
+      <c r="P90" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q90">
+        <v>8</v>
+      </c>
+      <c r="R90">
+        <v>5</v>
+      </c>
+      <c r="S90">
+        <v>13</v>
+      </c>
+      <c r="T90">
+        <v>3.25</v>
+      </c>
+      <c r="U90">
+        <v>2.05</v>
+      </c>
+      <c r="V90">
+        <v>3.25</v>
+      </c>
+      <c r="W90">
+        <v>1.45</v>
+      </c>
+      <c r="X90">
+        <v>2.56</v>
+      </c>
+      <c r="Y90">
+        <v>3.1</v>
+      </c>
+      <c r="Z90">
+        <v>1.32</v>
+      </c>
+      <c r="AA90">
+        <v>7.9</v>
+      </c>
+      <c r="AB90">
+        <v>1.05</v>
+      </c>
+      <c r="AC90">
+        <v>2.55</v>
+      </c>
+      <c r="AD90">
+        <v>2.95</v>
+      </c>
+      <c r="AE90">
+        <v>2.5</v>
+      </c>
+      <c r="AF90">
+        <v>1.05</v>
+      </c>
+      <c r="AG90">
+        <v>8.5</v>
+      </c>
+      <c r="AH90">
+        <v>1.36</v>
+      </c>
+      <c r="AI90">
+        <v>2.79</v>
+      </c>
+      <c r="AJ90">
+        <v>2.1</v>
+      </c>
+      <c r="AK90">
+        <v>1.6</v>
+      </c>
+      <c r="AL90">
+        <v>1.84</v>
+      </c>
+      <c r="AM90">
+        <v>1.92</v>
+      </c>
+      <c r="AN90">
+        <v>1.43</v>
+      </c>
+      <c r="AO90">
+        <v>1.31</v>
+      </c>
+      <c r="AP90">
+        <v>1.43</v>
+      </c>
+      <c r="AQ90">
+        <v>0.6</v>
+      </c>
+      <c r="AR90">
+        <v>0.83</v>
+      </c>
+      <c r="AS90">
+        <v>0.5</v>
+      </c>
+      <c r="AT90">
+        <v>1.14</v>
+      </c>
+      <c r="AU90">
+        <v>1.66</v>
+      </c>
+      <c r="AV90">
+        <v>1.46</v>
+      </c>
+      <c r="AW90">
+        <v>3.12</v>
+      </c>
+      <c r="AX90">
+        <v>0</v>
+      </c>
+      <c r="AY90">
+        <v>0</v>
+      </c>
+      <c r="AZ90">
+        <v>0</v>
+      </c>
+      <c r="BA90">
+        <v>0</v>
+      </c>
+      <c r="BB90">
+        <v>0</v>
+      </c>
+      <c r="BC90">
+        <v>2.38</v>
+      </c>
+      <c r="BD90">
+        <v>0</v>
+      </c>
+      <c r="BE90">
+        <v>0</v>
+      </c>
+      <c r="BF90">
+        <v>3</v>
+      </c>
+      <c r="BG90">
+        <v>4</v>
+      </c>
+      <c r="BH90">
+        <v>7</v>
+      </c>
+      <c r="BI90">
+        <v>3</v>
+      </c>
+      <c r="BJ90">
+        <v>10</v>
+      </c>
+      <c r="BK90">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Chile Segunda División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Segunda División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="195">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -596,6 +596,9 @@
   </si>
   <si>
     <t>['23', '68', '90+5']</t>
+  </si>
+  <si>
+    <t>['55']</t>
   </si>
 </sst>
 </file>
@@ -957,7 +960,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK90"/>
+  <dimension ref="A1:BK91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4344,7 +4347,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT18">
         <v>0.71</v>
@@ -4729,7 +4732,7 @@
         <v>1.67</v>
       </c>
       <c r="AT20">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AU20">
         <v>1.68</v>
@@ -5108,7 +5111,7 @@
         <v>1.5</v>
       </c>
       <c r="AS22">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT22">
         <v>1</v>
@@ -6257,7 +6260,7 @@
         <v>2.57</v>
       </c>
       <c r="AT28">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AU28">
         <v>1.41</v>
@@ -8928,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT42">
         <v>0.67</v>
@@ -9313,7 +9316,7 @@
         <v>1.83</v>
       </c>
       <c r="AT44">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AU44">
         <v>1.65</v>
@@ -11602,7 +11605,7 @@
         <v>1</v>
       </c>
       <c r="AS56">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT56">
         <v>1</v>
@@ -12369,7 +12372,7 @@
         <v>1.83</v>
       </c>
       <c r="AT60">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AU60">
         <v>1.44</v>
@@ -13512,7 +13515,7 @@
         <v>1</v>
       </c>
       <c r="AS66">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT66">
         <v>0.86</v>
@@ -15234,7 +15237,7 @@
         <v>0.5</v>
       </c>
       <c r="AT75">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AU75">
         <v>1.83</v>
@@ -16568,7 +16571,7 @@
         <v>1.6</v>
       </c>
       <c r="AS82">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT82">
         <v>1.83</v>
@@ -17335,7 +17338,7 @@
         <v>1</v>
       </c>
       <c r="AT86">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AU86">
         <v>1.17</v>
@@ -18150,6 +18153,197 @@
         <v>10</v>
       </c>
       <c r="BK90">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:63">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>5409774</v>
+      </c>
+      <c r="C91" t="s">
+        <v>63</v>
+      </c>
+      <c r="D91" t="s">
+        <v>64</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45090.875</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91" t="s">
+        <v>77</v>
+      </c>
+      <c r="H91" t="s">
+        <v>78</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91">
+        <v>1</v>
+      </c>
+      <c r="O91" t="s">
+        <v>82</v>
+      </c>
+      <c r="P91" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q91">
+        <v>4</v>
+      </c>
+      <c r="R91">
+        <v>3</v>
+      </c>
+      <c r="S91">
+        <v>7</v>
+      </c>
+      <c r="T91">
+        <v>2.5</v>
+      </c>
+      <c r="U91">
+        <v>2.05</v>
+      </c>
+      <c r="V91">
+        <v>4.5</v>
+      </c>
+      <c r="W91">
+        <v>1.46</v>
+      </c>
+      <c r="X91">
+        <v>2.5</v>
+      </c>
+      <c r="Y91">
+        <v>3.1</v>
+      </c>
+      <c r="Z91">
+        <v>1.31</v>
+      </c>
+      <c r="AA91">
+        <v>8.5</v>
+      </c>
+      <c r="AB91">
+        <v>1.04</v>
+      </c>
+      <c r="AC91">
+        <v>1.83</v>
+      </c>
+      <c r="AD91">
+        <v>3.1</v>
+      </c>
+      <c r="AE91">
+        <v>4</v>
+      </c>
+      <c r="AF91">
+        <v>1.06</v>
+      </c>
+      <c r="AG91">
+        <v>7.5</v>
+      </c>
+      <c r="AH91">
+        <v>1.41</v>
+      </c>
+      <c r="AI91">
+        <v>2.7</v>
+      </c>
+      <c r="AJ91">
+        <v>2.2</v>
+      </c>
+      <c r="AK91">
+        <v>1.65</v>
+      </c>
+      <c r="AL91">
+        <v>1.94</v>
+      </c>
+      <c r="AM91">
+        <v>1.82</v>
+      </c>
+      <c r="AN91">
+        <v>1.25</v>
+      </c>
+      <c r="AO91">
+        <v>1.3</v>
+      </c>
+      <c r="AP91">
+        <v>1.57</v>
+      </c>
+      <c r="AQ91">
+        <v>1.67</v>
+      </c>
+      <c r="AR91">
+        <v>0.17</v>
+      </c>
+      <c r="AS91">
+        <v>1.43</v>
+      </c>
+      <c r="AT91">
+        <v>0.57</v>
+      </c>
+      <c r="AU91">
+        <v>1.44</v>
+      </c>
+      <c r="AV91">
+        <v>1.3</v>
+      </c>
+      <c r="AW91">
+        <v>2.74</v>
+      </c>
+      <c r="AX91">
+        <v>0</v>
+      </c>
+      <c r="AY91">
+        <v>0</v>
+      </c>
+      <c r="AZ91">
+        <v>0</v>
+      </c>
+      <c r="BA91">
+        <v>1.22</v>
+      </c>
+      <c r="BB91">
+        <v>1.41</v>
+      </c>
+      <c r="BC91">
+        <v>2.2</v>
+      </c>
+      <c r="BD91">
+        <v>2.23</v>
+      </c>
+      <c r="BE91">
+        <v>3</v>
+      </c>
+      <c r="BF91">
+        <v>6</v>
+      </c>
+      <c r="BG91">
+        <v>3</v>
+      </c>
+      <c r="BH91">
+        <v>8</v>
+      </c>
+      <c r="BI91">
+        <v>4</v>
+      </c>
+      <c r="BJ91">
+        <v>14</v>
+      </c>
+      <c r="BK91">
         <v>7</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Chile Segunda División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Segunda División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="195">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -960,7 +960,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK91"/>
+  <dimension ref="A1:BK92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2628,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AT9">
         <v>1</v>
@@ -2822,7 +2822,7 @@
         <v>1.83</v>
       </c>
       <c r="AT10">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -6066,7 +6066,7 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AT27">
         <v>1.29</v>
@@ -6642,7 +6642,7 @@
         <v>2.17</v>
       </c>
       <c r="AT30">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU30">
         <v>1.7</v>
@@ -7785,7 +7785,7 @@
         <v>1.5</v>
       </c>
       <c r="AS36">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AT36">
         <v>2.17</v>
@@ -10077,7 +10077,7 @@
         <v>1.33</v>
       </c>
       <c r="AS48">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AT48">
         <v>1.33</v>
@@ -10271,7 +10271,7 @@
         <v>1.67</v>
       </c>
       <c r="AT49">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU49">
         <v>1.97</v>
@@ -14664,7 +14664,7 @@
         <v>1</v>
       </c>
       <c r="AT72">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU72">
         <v>1.14</v>
@@ -15234,7 +15234,7 @@
         <v>0.25</v>
       </c>
       <c r="AS75">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AT75">
         <v>0.57</v>
@@ -17529,7 +17529,7 @@
         <v>1.43</v>
       </c>
       <c r="AT87">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU87">
         <v>1.67</v>
@@ -18099,7 +18099,7 @@
         <v>0.83</v>
       </c>
       <c r="AS90">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AT90">
         <v>1.14</v>
@@ -18345,6 +18345,197 @@
       </c>
       <c r="BK91">
         <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:63">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>5409829</v>
+      </c>
+      <c r="C92" t="s">
+        <v>63</v>
+      </c>
+      <c r="D92" t="s">
+        <v>64</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45095.54166666666</v>
+      </c>
+      <c r="F92">
+        <v>9</v>
+      </c>
+      <c r="G92" t="s">
+        <v>72</v>
+      </c>
+      <c r="H92" t="s">
+        <v>77</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92" t="s">
+        <v>82</v>
+      </c>
+      <c r="P92" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q92">
+        <v>5</v>
+      </c>
+      <c r="R92">
+        <v>1</v>
+      </c>
+      <c r="S92">
+        <v>6</v>
+      </c>
+      <c r="T92">
+        <v>3.4</v>
+      </c>
+      <c r="U92">
+        <v>2.05</v>
+      </c>
+      <c r="V92">
+        <v>3</v>
+      </c>
+      <c r="W92">
+        <v>1.48</v>
+      </c>
+      <c r="X92">
+        <v>2.4</v>
+      </c>
+      <c r="Y92">
+        <v>3.15</v>
+      </c>
+      <c r="Z92">
+        <v>1.31</v>
+      </c>
+      <c r="AA92">
+        <v>8.1</v>
+      </c>
+      <c r="AB92">
+        <v>1.04</v>
+      </c>
+      <c r="AC92">
+        <v>2.7</v>
+      </c>
+      <c r="AD92">
+        <v>3.05</v>
+      </c>
+      <c r="AE92">
+        <v>2.33</v>
+      </c>
+      <c r="AF92">
+        <v>1.06</v>
+      </c>
+      <c r="AG92">
+        <v>8.75</v>
+      </c>
+      <c r="AH92">
+        <v>1.37</v>
+      </c>
+      <c r="AI92">
+        <v>2.8</v>
+      </c>
+      <c r="AJ92">
+        <v>2.18</v>
+      </c>
+      <c r="AK92">
+        <v>1.61</v>
+      </c>
+      <c r="AL92">
+        <v>1.86</v>
+      </c>
+      <c r="AM92">
+        <v>1.9</v>
+      </c>
+      <c r="AN92">
+        <v>1.5</v>
+      </c>
+      <c r="AO92">
+        <v>1.32</v>
+      </c>
+      <c r="AP92">
+        <v>1.39</v>
+      </c>
+      <c r="AQ92">
+        <v>0.5</v>
+      </c>
+      <c r="AR92">
+        <v>1.2</v>
+      </c>
+      <c r="AS92">
+        <v>0.57</v>
+      </c>
+      <c r="AT92">
+        <v>1.17</v>
+      </c>
+      <c r="AU92">
+        <v>1.62</v>
+      </c>
+      <c r="AV92">
+        <v>1.2</v>
+      </c>
+      <c r="AW92">
+        <v>2.82</v>
+      </c>
+      <c r="AX92">
+        <v>0</v>
+      </c>
+      <c r="AY92">
+        <v>0</v>
+      </c>
+      <c r="AZ92">
+        <v>0</v>
+      </c>
+      <c r="BA92">
+        <v>1.3</v>
+      </c>
+      <c r="BB92">
+        <v>1.58</v>
+      </c>
+      <c r="BC92">
+        <v>2</v>
+      </c>
+      <c r="BD92">
+        <v>2.7</v>
+      </c>
+      <c r="BE92">
+        <v>3.75</v>
+      </c>
+      <c r="BF92">
+        <v>6</v>
+      </c>
+      <c r="BG92">
+        <v>2</v>
+      </c>
+      <c r="BH92">
+        <v>2</v>
+      </c>
+      <c r="BI92">
+        <v>6</v>
+      </c>
+      <c r="BJ92">
+        <v>8</v>
+      </c>
+      <c r="BK92">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Chile Segunda División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Segunda División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="201">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -460,6 +460,21 @@
     <t>['58']</t>
   </si>
   <si>
+    <t>['62']</t>
+  </si>
+  <si>
+    <t>['4504', '9002']</t>
+  </si>
+  <si>
+    <t>['61', '81']</t>
+  </si>
+  <si>
+    <t>['87']</t>
+  </si>
+  <si>
+    <t>['25', '88']</t>
+  </si>
+  <si>
     <t>['90']</t>
   </si>
   <si>
@@ -508,9 +523,6 @@
     <t>['33', '39', '44']</t>
   </si>
   <si>
-    <t>['62']</t>
-  </si>
-  <si>
     <t>['27', '90+4', '90+8']</t>
   </si>
   <si>
@@ -599,6 +611,12 @@
   </si>
   <si>
     <t>['55']</t>
+  </si>
+  <si>
+    <t>['24']</t>
+  </si>
+  <si>
+    <t>['46', '85']</t>
   </si>
 </sst>
 </file>
@@ -960,7 +978,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK92"/>
+  <dimension ref="A1:BK99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1204,7 +1222,7 @@
         <v>79</v>
       </c>
       <c r="P2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1395,7 +1413,7 @@
         <v>80</v>
       </c>
       <c r="P3" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1586,7 +1604,7 @@
         <v>81</v>
       </c>
       <c r="P4" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1777,7 +1795,7 @@
         <v>82</v>
       </c>
       <c r="P5" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -2350,7 +2368,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="Q8">
         <v>12</v>
@@ -2437,10 +2455,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT8">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2541,7 +2559,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="Q9">
         <v>10</v>
@@ -2628,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AT9">
         <v>1</v>
@@ -2732,7 +2750,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -2819,10 +2837,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT10">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2923,7 +2941,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q11">
         <v>2</v>
@@ -3010,7 +3028,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT11">
         <v>1</v>
@@ -3114,7 +3132,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q12">
         <v>9</v>
@@ -3201,10 +3219,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT12">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3305,7 +3323,7 @@
         <v>82</v>
       </c>
       <c r="P13" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3392,10 +3410,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT13">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3878,7 +3896,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4069,7 +4087,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -4642,7 +4660,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -4920,10 +4938,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT21">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU21">
         <v>1.28</v>
@@ -5024,7 +5042,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5215,7 +5233,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5302,10 +5320,10 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT23">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU23">
         <v>1.43</v>
@@ -5406,7 +5424,7 @@
         <v>82</v>
       </c>
       <c r="P24" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q24">
         <v>13</v>
@@ -5493,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT24">
         <v>1</v>
@@ -5684,7 +5702,7 @@
         <v>3</v>
       </c>
       <c r="AS25">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT25">
         <v>1</v>
@@ -5875,10 +5893,10 @@
         <v>3</v>
       </c>
       <c r="AS26">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT26">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU26">
         <v>1.53</v>
@@ -5979,7 +5997,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q27">
         <v>10</v>
@@ -6066,10 +6084,10 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AT27">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU27">
         <v>2.07</v>
@@ -6170,7 +6188,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -6448,7 +6466,7 @@
         <v>0.5</v>
       </c>
       <c r="AS29">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT29">
         <v>1.14</v>
@@ -6642,7 +6660,7 @@
         <v>2.17</v>
       </c>
       <c r="AT30">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU30">
         <v>1.7</v>
@@ -7024,7 +7042,7 @@
         <v>1.43</v>
       </c>
       <c r="AT32">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU32">
         <v>1.3</v>
@@ -7125,7 +7143,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7212,7 +7230,7 @@
         <v>0.5</v>
       </c>
       <c r="AS33">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT33">
         <v>0.17</v>
@@ -7316,7 +7334,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7594,10 +7612,10 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT35">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU35">
         <v>1.39</v>
@@ -7698,7 +7716,7 @@
         <v>96</v>
       </c>
       <c r="P36" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -7785,7 +7803,7 @@
         <v>1.5</v>
       </c>
       <c r="AS36">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AT36">
         <v>2.17</v>
@@ -7889,7 +7907,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -7976,7 +7994,7 @@
         <v>1.5</v>
       </c>
       <c r="AS37">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT37">
         <v>1</v>
@@ -8358,7 +8376,7 @@
         <v>2</v>
       </c>
       <c r="AS39">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT39">
         <v>1</v>
@@ -8462,7 +8480,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -8549,10 +8567,10 @@
         <v>3</v>
       </c>
       <c r="AS40">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT40">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU40">
         <v>1.66</v>
@@ -8653,7 +8671,7 @@
         <v>111</v>
       </c>
       <c r="P41" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -8740,10 +8758,10 @@
         <v>2</v>
       </c>
       <c r="AS41">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT41">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU41">
         <v>1.09</v>
@@ -8934,7 +8952,7 @@
         <v>1.43</v>
       </c>
       <c r="AT42">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU42">
         <v>1.47</v>
@@ -9035,7 +9053,7 @@
         <v>113</v>
       </c>
       <c r="P43" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -9226,7 +9244,7 @@
         <v>114</v>
       </c>
       <c r="P44" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q44">
         <v>8</v>
@@ -9313,7 +9331,7 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT44">
         <v>0.57</v>
@@ -9417,7 +9435,7 @@
         <v>115</v>
       </c>
       <c r="P45" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9504,7 +9522,7 @@
         <v>0.33</v>
       </c>
       <c r="AS45">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT45">
         <v>0.86</v>
@@ -9698,7 +9716,7 @@
         <v>2.57</v>
       </c>
       <c r="AT46">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU46">
         <v>1.54</v>
@@ -9799,7 +9817,7 @@
         <v>117</v>
       </c>
       <c r="P47" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -9886,7 +9904,7 @@
         <v>1</v>
       </c>
       <c r="AS47">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT47">
         <v>1</v>
@@ -9990,7 +10008,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -10077,10 +10095,10 @@
         <v>1.33</v>
       </c>
       <c r="AS48">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AT48">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU48">
         <v>1.83</v>
@@ -10271,7 +10289,7 @@
         <v>1.67</v>
       </c>
       <c r="AT49">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU49">
         <v>1.97</v>
@@ -10372,7 +10390,7 @@
         <v>119</v>
       </c>
       <c r="P50" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q50">
         <v>9</v>
@@ -10653,7 +10671,7 @@
         <v>1.43</v>
       </c>
       <c r="AT51">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU51">
         <v>1.45</v>
@@ -10754,7 +10772,7 @@
         <v>120</v>
       </c>
       <c r="P52" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q52">
         <v>6</v>
@@ -10945,7 +10963,7 @@
         <v>82</v>
       </c>
       <c r="P53" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -11032,7 +11050,7 @@
         <v>0.33</v>
       </c>
       <c r="AS53">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT53">
         <v>1.14</v>
@@ -11414,7 +11432,7 @@
         <v>1.5</v>
       </c>
       <c r="AS55">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT55">
         <v>1</v>
@@ -11518,7 +11536,7 @@
         <v>123</v>
       </c>
       <c r="P56" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q56">
         <v>9</v>
@@ -11799,7 +11817,7 @@
         <v>1.67</v>
       </c>
       <c r="AT57">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU57">
         <v>1.92</v>
@@ -11900,7 +11918,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12178,10 +12196,10 @@
         <v>0</v>
       </c>
       <c r="AS59">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT59">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU59">
         <v>2</v>
@@ -12282,7 +12300,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12369,7 +12387,7 @@
         <v>0</v>
       </c>
       <c r="AS60">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT60">
         <v>0.57</v>
@@ -12560,7 +12578,7 @@
         <v>0</v>
       </c>
       <c r="AS61">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT61">
         <v>0.71</v>
@@ -12855,7 +12873,7 @@
         <v>127</v>
       </c>
       <c r="P63" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -12945,7 +12963,7 @@
         <v>2.17</v>
       </c>
       <c r="AT63">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU63">
         <v>1.55</v>
@@ -13133,7 +13151,7 @@
         <v>0.25</v>
       </c>
       <c r="AS64">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT64">
         <v>0.17</v>
@@ -13237,7 +13255,7 @@
         <v>129</v>
       </c>
       <c r="P65" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q65">
         <v>9</v>
@@ -13327,7 +13345,7 @@
         <v>1</v>
       </c>
       <c r="AT65">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU65">
         <v>1.07</v>
@@ -13619,7 +13637,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q67">
         <v>16</v>
@@ -13706,7 +13724,7 @@
         <v>1.2</v>
       </c>
       <c r="AS67">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT67">
         <v>1</v>
@@ -13810,7 +13828,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q68">
         <v>6</v>
@@ -14001,7 +14019,7 @@
         <v>133</v>
       </c>
       <c r="P69" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q69">
         <v>9</v>
@@ -14088,7 +14106,7 @@
         <v>2.25</v>
       </c>
       <c r="AS69">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT69">
         <v>2.17</v>
@@ -14282,7 +14300,7 @@
         <v>2.71</v>
       </c>
       <c r="AT70">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU70">
         <v>1.29</v>
@@ -14383,7 +14401,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q71">
         <v>8</v>
@@ -14470,7 +14488,7 @@
         <v>0.8</v>
       </c>
       <c r="AS71">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT71">
         <v>1.14</v>
@@ -14574,7 +14592,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q72">
         <v>2</v>
@@ -14664,7 +14682,7 @@
         <v>1</v>
       </c>
       <c r="AT72">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU72">
         <v>1.14</v>
@@ -14852,10 +14870,10 @@
         <v>1.6</v>
       </c>
       <c r="AS73">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT73">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU73">
         <v>1.7</v>
@@ -15043,7 +15061,7 @@
         <v>0.2</v>
       </c>
       <c r="AS74">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT74">
         <v>0.71</v>
@@ -15147,7 +15165,7 @@
         <v>139</v>
       </c>
       <c r="P75" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q75">
         <v>7</v>
@@ -15234,7 +15252,7 @@
         <v>0.25</v>
       </c>
       <c r="AS75">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AT75">
         <v>0.57</v>
@@ -15338,7 +15356,7 @@
         <v>128</v>
       </c>
       <c r="P76" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q76">
         <v>2</v>
@@ -15616,7 +15634,7 @@
         <v>0.2</v>
       </c>
       <c r="AS77">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT77">
         <v>0.17</v>
@@ -15810,7 +15828,7 @@
         <v>2.17</v>
       </c>
       <c r="AT78">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU78">
         <v>1.68</v>
@@ -15911,7 +15929,7 @@
         <v>82</v>
       </c>
       <c r="P79" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -15998,10 +16016,10 @@
         <v>0.2</v>
       </c>
       <c r="AS79">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT79">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU79">
         <v>1.72</v>
@@ -16293,7 +16311,7 @@
         <v>142</v>
       </c>
       <c r="P81" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q81">
         <v>11</v>
@@ -16380,7 +16398,7 @@
         <v>0.33</v>
       </c>
       <c r="AS81">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT81">
         <v>0.71</v>
@@ -16484,7 +16502,7 @@
         <v>82</v>
       </c>
       <c r="P82" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -16574,7 +16592,7 @@
         <v>1.43</v>
       </c>
       <c r="AT82">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU82">
         <v>1.49</v>
@@ -16762,7 +16780,7 @@
         <v>2</v>
       </c>
       <c r="AS83">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT83">
         <v>2.17</v>
@@ -16866,7 +16884,7 @@
         <v>143</v>
       </c>
       <c r="P84" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q84">
         <v>5</v>
@@ -16956,7 +16974,7 @@
         <v>2.71</v>
       </c>
       <c r="AT84">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU84">
         <v>1.35</v>
@@ -17057,7 +17075,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q85">
         <v>12</v>
@@ -17144,7 +17162,7 @@
         <v>0.83</v>
       </c>
       <c r="AS85">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT85">
         <v>0.86</v>
@@ -17526,10 +17544,10 @@
         <v>1.25</v>
       </c>
       <c r="AS87">
+        <v>1.25</v>
+      </c>
+      <c r="AT87">
         <v>1.43</v>
-      </c>
-      <c r="AT87">
-        <v>1.17</v>
       </c>
       <c r="AU87">
         <v>1.67</v>
@@ -17821,7 +17839,7 @@
         <v>146</v>
       </c>
       <c r="P89" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -18012,7 +18030,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q90">
         <v>8</v>
@@ -18099,7 +18117,7 @@
         <v>0.83</v>
       </c>
       <c r="AS90">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AT90">
         <v>1.14</v>
@@ -18203,7 +18221,7 @@
         <v>82</v>
       </c>
       <c r="P91" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -18481,10 +18499,10 @@
         <v>1.2</v>
       </c>
       <c r="AS92">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AT92">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU92">
         <v>1.62</v>
@@ -18536,6 +18554,1343 @@
       </c>
       <c r="BK92">
         <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:63">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>5409863</v>
+      </c>
+      <c r="C93" t="s">
+        <v>63</v>
+      </c>
+      <c r="D93" t="s">
+        <v>64</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45115.66666666666</v>
+      </c>
+      <c r="F93">
+        <v>14</v>
+      </c>
+      <c r="G93" t="s">
+        <v>74</v>
+      </c>
+      <c r="H93" t="s">
+        <v>66</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93" t="s">
+        <v>82</v>
+      </c>
+      <c r="P93" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q93">
+        <v>3</v>
+      </c>
+      <c r="R93">
+        <v>4</v>
+      </c>
+      <c r="S93">
+        <v>7</v>
+      </c>
+      <c r="T93">
+        <v>3.1</v>
+      </c>
+      <c r="U93">
+        <v>2.2</v>
+      </c>
+      <c r="V93">
+        <v>3.1</v>
+      </c>
+      <c r="W93">
+        <v>1.34</v>
+      </c>
+      <c r="X93">
+        <v>2.99</v>
+      </c>
+      <c r="Y93">
+        <v>2.59</v>
+      </c>
+      <c r="Z93">
+        <v>1.44</v>
+      </c>
+      <c r="AA93">
+        <v>6.2</v>
+      </c>
+      <c r="AB93">
+        <v>1.09</v>
+      </c>
+      <c r="AC93">
+        <v>2.9</v>
+      </c>
+      <c r="AD93">
+        <v>3.2</v>
+      </c>
+      <c r="AE93">
+        <v>2.25</v>
+      </c>
+      <c r="AF93">
+        <v>1.04</v>
+      </c>
+      <c r="AG93">
+        <v>11</v>
+      </c>
+      <c r="AH93">
+        <v>1.23</v>
+      </c>
+      <c r="AI93">
+        <v>3.56</v>
+      </c>
+      <c r="AJ93">
+        <v>1.8</v>
+      </c>
+      <c r="AK93">
+        <v>1.93</v>
+      </c>
+      <c r="AL93">
+        <v>1.61</v>
+      </c>
+      <c r="AM93">
+        <v>2.25</v>
+      </c>
+      <c r="AN93">
+        <v>1.52</v>
+      </c>
+      <c r="AO93">
+        <v>1.27</v>
+      </c>
+      <c r="AP93">
+        <v>1.4</v>
+      </c>
+      <c r="AQ93">
+        <v>1.33</v>
+      </c>
+      <c r="AR93">
+        <v>1</v>
+      </c>
+      <c r="AS93">
+        <v>1.29</v>
+      </c>
+      <c r="AT93">
+        <v>1</v>
+      </c>
+      <c r="AU93">
+        <v>1.73</v>
+      </c>
+      <c r="AV93">
+        <v>1.68</v>
+      </c>
+      <c r="AW93">
+        <v>3.41</v>
+      </c>
+      <c r="AX93">
+        <v>0</v>
+      </c>
+      <c r="AY93">
+        <v>0</v>
+      </c>
+      <c r="AZ93">
+        <v>0</v>
+      </c>
+      <c r="BA93">
+        <v>0</v>
+      </c>
+      <c r="BB93">
+        <v>0</v>
+      </c>
+      <c r="BC93">
+        <v>0</v>
+      </c>
+      <c r="BD93">
+        <v>0</v>
+      </c>
+      <c r="BE93">
+        <v>0</v>
+      </c>
+      <c r="BF93">
+        <v>4</v>
+      </c>
+      <c r="BG93">
+        <v>4</v>
+      </c>
+      <c r="BH93">
+        <v>6</v>
+      </c>
+      <c r="BI93">
+        <v>7</v>
+      </c>
+      <c r="BJ93">
+        <v>10</v>
+      </c>
+      <c r="BK93">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:63">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>5409862</v>
+      </c>
+      <c r="C94" t="s">
+        <v>63</v>
+      </c>
+      <c r="D94" t="s">
+        <v>64</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45115.66666666666</v>
+      </c>
+      <c r="F94">
+        <v>14</v>
+      </c>
+      <c r="G94" t="s">
+        <v>76</v>
+      </c>
+      <c r="H94" t="s">
+        <v>65</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+      <c r="N94">
+        <v>2</v>
+      </c>
+      <c r="O94" t="s">
+        <v>148</v>
+      </c>
+      <c r="P94" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q94">
+        <v>5</v>
+      </c>
+      <c r="R94">
+        <v>4</v>
+      </c>
+      <c r="S94">
+        <v>9</v>
+      </c>
+      <c r="T94">
+        <v>3.1</v>
+      </c>
+      <c r="U94">
+        <v>2.2</v>
+      </c>
+      <c r="V94">
+        <v>3.1</v>
+      </c>
+      <c r="W94">
+        <v>1.36</v>
+      </c>
+      <c r="X94">
+        <v>2.88</v>
+      </c>
+      <c r="Y94">
+        <v>2.73</v>
+      </c>
+      <c r="Z94">
+        <v>1.4</v>
+      </c>
+      <c r="AA94">
+        <v>6.5</v>
+      </c>
+      <c r="AB94">
+        <v>1.08</v>
+      </c>
+      <c r="AC94">
+        <v>2.55</v>
+      </c>
+      <c r="AD94">
+        <v>3.2</v>
+      </c>
+      <c r="AE94">
+        <v>2.55</v>
+      </c>
+      <c r="AF94">
+        <v>1.06</v>
+      </c>
+      <c r="AG94">
+        <v>8</v>
+      </c>
+      <c r="AH94">
+        <v>1.26</v>
+      </c>
+      <c r="AI94">
+        <v>3.34</v>
+      </c>
+      <c r="AJ94">
+        <v>1.85</v>
+      </c>
+      <c r="AK94">
+        <v>1.85</v>
+      </c>
+      <c r="AL94">
+        <v>1.67</v>
+      </c>
+      <c r="AM94">
+        <v>2.15</v>
+      </c>
+      <c r="AN94">
+        <v>1.45</v>
+      </c>
+      <c r="AO94">
+        <v>1.28</v>
+      </c>
+      <c r="AP94">
+        <v>1.45</v>
+      </c>
+      <c r="AQ94">
+        <v>1.83</v>
+      </c>
+      <c r="AR94">
+        <v>1</v>
+      </c>
+      <c r="AS94">
+        <v>1.71</v>
+      </c>
+      <c r="AT94">
+        <v>1</v>
+      </c>
+      <c r="AU94">
+        <v>1.59</v>
+      </c>
+      <c r="AV94">
+        <v>1.35</v>
+      </c>
+      <c r="AW94">
+        <v>2.94</v>
+      </c>
+      <c r="AX94">
+        <v>0</v>
+      </c>
+      <c r="AY94">
+        <v>0</v>
+      </c>
+      <c r="AZ94">
+        <v>0</v>
+      </c>
+      <c r="BA94">
+        <v>0</v>
+      </c>
+      <c r="BB94">
+        <v>0</v>
+      </c>
+      <c r="BC94">
+        <v>2</v>
+      </c>
+      <c r="BD94">
+        <v>0</v>
+      </c>
+      <c r="BE94">
+        <v>0</v>
+      </c>
+      <c r="BF94">
+        <v>4</v>
+      </c>
+      <c r="BG94">
+        <v>7</v>
+      </c>
+      <c r="BH94">
+        <v>10</v>
+      </c>
+      <c r="BI94">
+        <v>7</v>
+      </c>
+      <c r="BJ94">
+        <v>14</v>
+      </c>
+      <c r="BK94">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:63">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>5409865</v>
+      </c>
+      <c r="C95" t="s">
+        <v>63</v>
+      </c>
+      <c r="D95" t="s">
+        <v>64</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45115.66666666666</v>
+      </c>
+      <c r="F95">
+        <v>14</v>
+      </c>
+      <c r="G95" t="s">
+        <v>78</v>
+      </c>
+      <c r="H95" t="s">
+        <v>77</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+      <c r="N95">
+        <v>1</v>
+      </c>
+      <c r="O95" t="s">
+        <v>82</v>
+      </c>
+      <c r="P95" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q95">
+        <v>5</v>
+      </c>
+      <c r="R95">
+        <v>5</v>
+      </c>
+      <c r="S95">
+        <v>10</v>
+      </c>
+      <c r="T95">
+        <v>3</v>
+      </c>
+      <c r="U95">
+        <v>1.95</v>
+      </c>
+      <c r="V95">
+        <v>3.75</v>
+      </c>
+      <c r="W95">
+        <v>1.49</v>
+      </c>
+      <c r="X95">
+        <v>2.44</v>
+      </c>
+      <c r="Y95">
+        <v>3.32</v>
+      </c>
+      <c r="Z95">
+        <v>1.29</v>
+      </c>
+      <c r="AA95">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AB95">
+        <v>1.04</v>
+      </c>
+      <c r="AC95">
+        <v>2.3</v>
+      </c>
+      <c r="AD95">
+        <v>2.9</v>
+      </c>
+      <c r="AE95">
+        <v>3</v>
+      </c>
+      <c r="AF95">
+        <v>1.08</v>
+      </c>
+      <c r="AG95">
+        <v>6.5</v>
+      </c>
+      <c r="AH95">
+        <v>1.4</v>
+      </c>
+      <c r="AI95">
+        <v>2.64</v>
+      </c>
+      <c r="AJ95">
+        <v>2.38</v>
+      </c>
+      <c r="AK95">
+        <v>1.51</v>
+      </c>
+      <c r="AL95">
+        <v>1.97</v>
+      </c>
+      <c r="AM95">
+        <v>1.79</v>
+      </c>
+      <c r="AN95">
+        <v>1.32</v>
+      </c>
+      <c r="AO95">
+        <v>1.31</v>
+      </c>
+      <c r="AP95">
+        <v>1.55</v>
+      </c>
+      <c r="AQ95">
+        <v>1.83</v>
+      </c>
+      <c r="AR95">
+        <v>1.17</v>
+      </c>
+      <c r="AS95">
+        <v>1.57</v>
+      </c>
+      <c r="AT95">
+        <v>1.43</v>
+      </c>
+      <c r="AU95">
+        <v>1.33</v>
+      </c>
+      <c r="AV95">
+        <v>1.18</v>
+      </c>
+      <c r="AW95">
+        <v>2.51</v>
+      </c>
+      <c r="AX95">
+        <v>0</v>
+      </c>
+      <c r="AY95">
+        <v>0</v>
+      </c>
+      <c r="AZ95">
+        <v>0</v>
+      </c>
+      <c r="BA95">
+        <v>0</v>
+      </c>
+      <c r="BB95">
+        <v>0</v>
+      </c>
+      <c r="BC95">
+        <v>0</v>
+      </c>
+      <c r="BD95">
+        <v>0</v>
+      </c>
+      <c r="BE95">
+        <v>0</v>
+      </c>
+      <c r="BF95">
+        <v>3</v>
+      </c>
+      <c r="BG95">
+        <v>10</v>
+      </c>
+      <c r="BH95">
+        <v>6</v>
+      </c>
+      <c r="BI95">
+        <v>1</v>
+      </c>
+      <c r="BJ95">
+        <v>9</v>
+      </c>
+      <c r="BK95">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:63">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>5409861</v>
+      </c>
+      <c r="C96" t="s">
+        <v>63</v>
+      </c>
+      <c r="D96" t="s">
+        <v>64</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45115.66666666666</v>
+      </c>
+      <c r="F96">
+        <v>14</v>
+      </c>
+      <c r="G96" t="s">
+        <v>73</v>
+      </c>
+      <c r="H96" t="s">
+        <v>69</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>2</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96">
+        <v>3</v>
+      </c>
+      <c r="O96" t="s">
+        <v>149</v>
+      </c>
+      <c r="P96" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q96">
+        <v>10</v>
+      </c>
+      <c r="R96">
+        <v>2</v>
+      </c>
+      <c r="S96">
+        <v>12</v>
+      </c>
+      <c r="T96">
+        <v>2.6</v>
+      </c>
+      <c r="U96">
+        <v>2</v>
+      </c>
+      <c r="V96">
+        <v>4.3</v>
+      </c>
+      <c r="W96">
+        <v>1.45</v>
+      </c>
+      <c r="X96">
+        <v>2.56</v>
+      </c>
+      <c r="Y96">
+        <v>3.1</v>
+      </c>
+      <c r="Z96">
+        <v>1.32</v>
+      </c>
+      <c r="AA96">
+        <v>7.7</v>
+      </c>
+      <c r="AB96">
+        <v>1.05</v>
+      </c>
+      <c r="AC96">
+        <v>2</v>
+      </c>
+      <c r="AD96">
+        <v>3.2</v>
+      </c>
+      <c r="AE96">
+        <v>3.5</v>
+      </c>
+      <c r="AF96">
+        <v>1.07</v>
+      </c>
+      <c r="AG96">
+        <v>7</v>
+      </c>
+      <c r="AH96">
+        <v>1.36</v>
+      </c>
+      <c r="AI96">
+        <v>2.79</v>
+      </c>
+      <c r="AJ96">
+        <v>2.2</v>
+      </c>
+      <c r="AK96">
+        <v>1.61</v>
+      </c>
+      <c r="AL96">
+        <v>1.92</v>
+      </c>
+      <c r="AM96">
+        <v>1.84</v>
+      </c>
+      <c r="AN96">
+        <v>1.23</v>
+      </c>
+      <c r="AO96">
+        <v>1.29</v>
+      </c>
+      <c r="AP96">
+        <v>1.74</v>
+      </c>
+      <c r="AQ96">
+        <v>1.83</v>
+      </c>
+      <c r="AR96">
+        <v>1.29</v>
+      </c>
+      <c r="AS96">
+        <v>2</v>
+      </c>
+      <c r="AT96">
+        <v>1.13</v>
+      </c>
+      <c r="AU96">
+        <v>1.78</v>
+      </c>
+      <c r="AV96">
+        <v>1.53</v>
+      </c>
+      <c r="AW96">
+        <v>3.31</v>
+      </c>
+      <c r="AX96">
+        <v>0</v>
+      </c>
+      <c r="AY96">
+        <v>0</v>
+      </c>
+      <c r="AZ96">
+        <v>0</v>
+      </c>
+      <c r="BA96">
+        <v>0</v>
+      </c>
+      <c r="BB96">
+        <v>0</v>
+      </c>
+      <c r="BC96">
+        <v>0</v>
+      </c>
+      <c r="BD96">
+        <v>0</v>
+      </c>
+      <c r="BE96">
+        <v>0</v>
+      </c>
+      <c r="BF96">
+        <v>8</v>
+      </c>
+      <c r="BG96">
+        <v>4</v>
+      </c>
+      <c r="BH96">
+        <v>6</v>
+      </c>
+      <c r="BI96">
+        <v>2</v>
+      </c>
+      <c r="BJ96">
+        <v>14</v>
+      </c>
+      <c r="BK96">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:63">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>5409866</v>
+      </c>
+      <c r="C97" t="s">
+        <v>63</v>
+      </c>
+      <c r="D97" t="s">
+        <v>64</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45115.6875</v>
+      </c>
+      <c r="F97">
+        <v>14</v>
+      </c>
+      <c r="G97" t="s">
+        <v>75</v>
+      </c>
+      <c r="H97" t="s">
+        <v>68</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>2</v>
+      </c>
+      <c r="M97">
+        <v>1</v>
+      </c>
+      <c r="N97">
+        <v>3</v>
+      </c>
+      <c r="O97" t="s">
+        <v>150</v>
+      </c>
+      <c r="P97" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q97">
+        <v>3</v>
+      </c>
+      <c r="R97">
+        <v>5</v>
+      </c>
+      <c r="S97">
+        <v>8</v>
+      </c>
+      <c r="T97">
+        <v>3</v>
+      </c>
+      <c r="U97">
+        <v>1.95</v>
+      </c>
+      <c r="V97">
+        <v>3.75</v>
+      </c>
+      <c r="W97">
+        <v>1.49</v>
+      </c>
+      <c r="X97">
+        <v>2.44</v>
+      </c>
+      <c r="Y97">
+        <v>3.32</v>
+      </c>
+      <c r="Z97">
+        <v>1.29</v>
+      </c>
+      <c r="AA97">
+        <v>8.5</v>
+      </c>
+      <c r="AB97">
+        <v>1.04</v>
+      </c>
+      <c r="AC97">
+        <v>2.2</v>
+      </c>
+      <c r="AD97">
+        <v>3.2</v>
+      </c>
+      <c r="AE97">
+        <v>3.1</v>
+      </c>
+      <c r="AF97">
+        <v>1.05</v>
+      </c>
+      <c r="AG97">
+        <v>7.1</v>
+      </c>
+      <c r="AH97">
+        <v>1.44</v>
+      </c>
+      <c r="AI97">
+        <v>2.74</v>
+      </c>
+      <c r="AJ97">
+        <v>2.25</v>
+      </c>
+      <c r="AK97">
+        <v>1.53</v>
+      </c>
+      <c r="AL97">
+        <v>1.93</v>
+      </c>
+      <c r="AM97">
+        <v>1.83</v>
+      </c>
+      <c r="AN97">
+        <v>1.32</v>
+      </c>
+      <c r="AO97">
+        <v>1.31</v>
+      </c>
+      <c r="AP97">
+        <v>1.56</v>
+      </c>
+      <c r="AQ97">
+        <v>1.33</v>
+      </c>
+      <c r="AR97">
+        <v>1.33</v>
+      </c>
+      <c r="AS97">
+        <v>1.57</v>
+      </c>
+      <c r="AT97">
+        <v>1.14</v>
+      </c>
+      <c r="AU97">
+        <v>1.9</v>
+      </c>
+      <c r="AV97">
+        <v>1.53</v>
+      </c>
+      <c r="AW97">
+        <v>3.43</v>
+      </c>
+      <c r="AX97">
+        <v>0</v>
+      </c>
+      <c r="AY97">
+        <v>0</v>
+      </c>
+      <c r="AZ97">
+        <v>0</v>
+      </c>
+      <c r="BA97">
+        <v>0</v>
+      </c>
+      <c r="BB97">
+        <v>0</v>
+      </c>
+      <c r="BC97">
+        <v>0</v>
+      </c>
+      <c r="BD97">
+        <v>0</v>
+      </c>
+      <c r="BE97">
+        <v>0</v>
+      </c>
+      <c r="BF97">
+        <v>3</v>
+      </c>
+      <c r="BG97">
+        <v>7</v>
+      </c>
+      <c r="BH97">
+        <v>5</v>
+      </c>
+      <c r="BI97">
+        <v>2</v>
+      </c>
+      <c r="BJ97">
+        <v>8</v>
+      </c>
+      <c r="BK97">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:63">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>5409860</v>
+      </c>
+      <c r="C98" t="s">
+        <v>63</v>
+      </c>
+      <c r="D98" t="s">
+        <v>64</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45115.70833333334</v>
+      </c>
+      <c r="F98">
+        <v>14</v>
+      </c>
+      <c r="G98" t="s">
+        <v>71</v>
+      </c>
+      <c r="H98" t="s">
+        <v>70</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>2</v>
+      </c>
+      <c r="N98">
+        <v>3</v>
+      </c>
+      <c r="O98" t="s">
+        <v>151</v>
+      </c>
+      <c r="P98" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q98">
+        <v>8</v>
+      </c>
+      <c r="R98">
+        <v>3</v>
+      </c>
+      <c r="S98">
+        <v>11</v>
+      </c>
+      <c r="T98">
+        <v>3.25</v>
+      </c>
+      <c r="U98">
+        <v>1.95</v>
+      </c>
+      <c r="V98">
+        <v>3.5</v>
+      </c>
+      <c r="W98">
+        <v>1.5</v>
+      </c>
+      <c r="X98">
+        <v>2.42</v>
+      </c>
+      <c r="Y98">
+        <v>3.34</v>
+      </c>
+      <c r="Z98">
+        <v>1.28</v>
+      </c>
+      <c r="AA98">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AB98">
+        <v>1.04</v>
+      </c>
+      <c r="AC98">
+        <v>2.55</v>
+      </c>
+      <c r="AD98">
+        <v>3</v>
+      </c>
+      <c r="AE98">
+        <v>2.7</v>
+      </c>
+      <c r="AF98">
+        <v>1.08</v>
+      </c>
+      <c r="AG98">
+        <v>6.5</v>
+      </c>
+      <c r="AH98">
+        <v>1.42</v>
+      </c>
+      <c r="AI98">
+        <v>2.57</v>
+      </c>
+      <c r="AJ98">
+        <v>2.3</v>
+      </c>
+      <c r="AK98">
+        <v>1.5</v>
+      </c>
+      <c r="AL98">
+        <v>1.95</v>
+      </c>
+      <c r="AM98">
+        <v>1.81</v>
+      </c>
+      <c r="AN98">
+        <v>1.4</v>
+      </c>
+      <c r="AO98">
+        <v>1.32</v>
+      </c>
+      <c r="AP98">
+        <v>1.44</v>
+      </c>
+      <c r="AQ98">
+        <v>1.43</v>
+      </c>
+      <c r="AR98">
+        <v>1.83</v>
+      </c>
+      <c r="AS98">
+        <v>1.25</v>
+      </c>
+      <c r="AT98">
+        <v>2</v>
+      </c>
+      <c r="AU98">
+        <v>1.6</v>
+      </c>
+      <c r="AV98">
+        <v>1.37</v>
+      </c>
+      <c r="AW98">
+        <v>2.97</v>
+      </c>
+      <c r="AX98">
+        <v>0</v>
+      </c>
+      <c r="AY98">
+        <v>0</v>
+      </c>
+      <c r="AZ98">
+        <v>0</v>
+      </c>
+      <c r="BA98">
+        <v>0</v>
+      </c>
+      <c r="BB98">
+        <v>0</v>
+      </c>
+      <c r="BC98">
+        <v>0</v>
+      </c>
+      <c r="BD98">
+        <v>0</v>
+      </c>
+      <c r="BE98">
+        <v>0</v>
+      </c>
+      <c r="BF98">
+        <v>6</v>
+      </c>
+      <c r="BG98">
+        <v>7</v>
+      </c>
+      <c r="BH98">
+        <v>5</v>
+      </c>
+      <c r="BI98">
+        <v>4</v>
+      </c>
+      <c r="BJ98">
+        <v>11</v>
+      </c>
+      <c r="BK98">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:63">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>5409864</v>
+      </c>
+      <c r="C99" t="s">
+        <v>63</v>
+      </c>
+      <c r="D99" t="s">
+        <v>64</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45116.66666666666</v>
+      </c>
+      <c r="F99">
+        <v>14</v>
+      </c>
+      <c r="G99" t="s">
+        <v>72</v>
+      </c>
+      <c r="H99" t="s">
+        <v>67</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <v>2</v>
+      </c>
+      <c r="L99">
+        <v>2</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="N99">
+        <v>3</v>
+      </c>
+      <c r="O99" t="s">
+        <v>152</v>
+      </c>
+      <c r="P99" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q99">
+        <v>6</v>
+      </c>
+      <c r="R99">
+        <v>6</v>
+      </c>
+      <c r="S99">
+        <v>12</v>
+      </c>
+      <c r="T99">
+        <v>3.75</v>
+      </c>
+      <c r="U99">
+        <v>2.05</v>
+      </c>
+      <c r="V99">
+        <v>2.88</v>
+      </c>
+      <c r="W99">
+        <v>1.43</v>
+      </c>
+      <c r="X99">
+        <v>2.6</v>
+      </c>
+      <c r="Y99">
+        <v>3</v>
+      </c>
+      <c r="Z99">
+        <v>1.34</v>
+      </c>
+      <c r="AA99">
+        <v>8</v>
+      </c>
+      <c r="AB99">
+        <v>1.05</v>
+      </c>
+      <c r="AC99">
+        <v>2.94</v>
+      </c>
+      <c r="AD99">
+        <v>3.18</v>
+      </c>
+      <c r="AE99">
+        <v>2.36</v>
+      </c>
+      <c r="AF99">
+        <v>1.05</v>
+      </c>
+      <c r="AG99">
+        <v>8.5</v>
+      </c>
+      <c r="AH99">
+        <v>1.37</v>
+      </c>
+      <c r="AI99">
+        <v>2.85</v>
+      </c>
+      <c r="AJ99">
+        <v>2.19</v>
+      </c>
+      <c r="AK99">
+        <v>1.66</v>
+      </c>
+      <c r="AL99">
+        <v>1.85</v>
+      </c>
+      <c r="AM99">
+        <v>1.91</v>
+      </c>
+      <c r="AN99">
+        <v>1.67</v>
+      </c>
+      <c r="AO99">
+        <v>1.25</v>
+      </c>
+      <c r="AP99">
+        <v>1.25</v>
+      </c>
+      <c r="AQ99">
+        <v>0.57</v>
+      </c>
+      <c r="AR99">
+        <v>0.67</v>
+      </c>
+      <c r="AS99">
+        <v>0.88</v>
+      </c>
+      <c r="AT99">
+        <v>0.57</v>
+      </c>
+      <c r="AU99">
+        <v>1.58</v>
+      </c>
+      <c r="AV99">
+        <v>1.29</v>
+      </c>
+      <c r="AW99">
+        <v>2.87</v>
+      </c>
+      <c r="AX99">
+        <v>0</v>
+      </c>
+      <c r="AY99">
+        <v>0</v>
+      </c>
+      <c r="AZ99">
+        <v>0</v>
+      </c>
+      <c r="BA99">
+        <v>1.3</v>
+      </c>
+      <c r="BB99">
+        <v>1.55</v>
+      </c>
+      <c r="BC99">
+        <v>2</v>
+      </c>
+      <c r="BD99">
+        <v>2.63</v>
+      </c>
+      <c r="BE99">
+        <v>3.65</v>
+      </c>
+      <c r="BF99">
+        <v>7</v>
+      </c>
+      <c r="BG99">
+        <v>2</v>
+      </c>
+      <c r="BH99">
+        <v>7</v>
+      </c>
+      <c r="BI99">
+        <v>5</v>
+      </c>
+      <c r="BJ99">
+        <v>14</v>
+      </c>
+      <c r="BK99">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
